--- a/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Synthese(B-65)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vince\Desktop\B65_Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="494"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="494"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TempsEstime">'Sprint 1 - Planification'!$X$8:$X$90</definedName>
     <definedName name="ValeurSprint">'Sprint 1 - Planification'!$AA$8:$AA$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Rédaction du document de planification</t>
-  </si>
-  <si>
-    <t>Nom du projet super cool que vous faites!</t>
   </si>
   <si>
     <t>Prédéces.</t>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>Ess / Opt</t>
-  </si>
-  <si>
-    <t>votre nom</t>
   </si>
   <si>
     <t>Réalisé par</t>
@@ -383,6 +377,75 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Sign Guesser</t>
+  </si>
+  <si>
+    <t>Vincent Thomassin-Rochon</t>
+  </si>
+  <si>
+    <t>Créer la solution de base avec visual studio</t>
+  </si>
+  <si>
+    <t>Création des .h et .cpp de base</t>
+  </si>
+  <si>
+    <t>Acquisition des 5 boules vertes</t>
+  </si>
+  <si>
+    <t>Conception de l'interface usager</t>
+  </si>
+  <si>
+    <t>sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrication du fond </t>
+  </si>
+  <si>
+    <t>Conception du diagramme de classe</t>
+  </si>
+  <si>
+    <t>Conception des cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Redaction du squelette de base de toutes les classes</t>
+  </si>
+  <si>
+    <t>Creation du GUI</t>
+  </si>
+  <si>
+    <t>Afficher une image prise de la camera sur le GUI</t>
+  </si>
+  <si>
+    <t>Rediger les classes des cameras</t>
+  </si>
+  <si>
+    <t>Coder les classes dont les classes d'algorightme heriterons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coder algorithme de normalisation </t>
+  </si>
+  <si>
+    <t>Coder algorithme Séparation des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coder algorithme de segmentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coder algorithme de filtrage par rang </t>
+  </si>
+  <si>
+    <t>Coder algorithme de remplissage d'intérieur</t>
+  </si>
+  <si>
+    <t>Coder algorithme de calcule de forme</t>
+  </si>
+  <si>
+    <t>Coder algorithme de convolution</t>
+  </si>
+  <si>
+    <t>Coder classe pour les differents nœuds de convolution</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1510,1082 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="144">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2314,49 +3452,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF75C400"/>
       </font>
@@ -2479,18 +3574,6 @@
           </stop>
         </gradientFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2652,10 +3735,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2729,13 +3812,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,10 +4158,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3577,7 +4660,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3694,7 +4777,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4033,13 +5116,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,7 +5239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6723,6 +7806,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6758,6 +7858,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6912,29 +8029,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" style="4" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="11.44140625" style="4"/>
     <col min="12" max="16" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="17" max="19" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="27" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="35" width="11.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="27" width="11.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="35" width="11.44140625" style="4" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.42578125" style="4"/>
+    <col min="37" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="122" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -6943,22 +8060,22 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="123" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F3" s="123"/>
       <c r="G3" s="123"/>
       <c r="H3" s="123"/>
     </row>
-    <row r="4" spans="2:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
@@ -6967,9 +8084,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -6978,37 +8095,37 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60" t="str">
         <f>IF(L44=0,CONCATENATE(AE12, " totalisant ", AE15, " de travail estimé."),CONCATENATE("Attention, il reste " &amp; L45 &amp; " à remplir."))</f>
-        <v>4 tâches ont été définies totalisant 12 heures et 30 minutes de travail estimé.</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Attention, il reste 40 champs à remplir.</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="H7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="T7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8" s="44">
         <v>1</v>
       </c>
@@ -7016,10 +8133,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -7051,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S8" s="23">
         <v>233</v>
@@ -7061,10 +8178,10 @@
       </c>
       <c r="U8" s="3">
         <f>MAX(B8:B42)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="3">
         <v>1</v>
@@ -7074,7 +8191,7 @@
       </c>
       <c r="Y8" s="8">
         <f>MAX(G8:G42)</f>
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>1</v>
@@ -7087,14 +8204,14 @@
       </c>
       <c r="AC8" s="4">
         <f>COUNTA(C8:C43)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(G8:G43)</f>
-        <v>0.5208333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1.6041666666666672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9" s="45">
         <f>IF(LEN(C9)&lt;&gt;0,IF(OR(LEN(B8)=0,B8="^"),"^",B8+1),"")</f>
         <v>2</v>
@@ -7106,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -7122,23 +8239,23 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
-        <f t="shared" ref="M9:M23" si="1">AND(NOT(ISBLANK($C9)),LEN(E9)=0)</f>
+        <f t="shared" ref="M9:M20" si="1">AND(NOT(ISBLANK($C9)),LEN(E9)=0)</f>
         <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
-        <f t="shared" ref="N9:N23" si="2">AND(NOT(ISBLANK($C9)),LEN(F9)=0)</f>
+        <f t="shared" ref="N9:N20" si="2">AND(NOT(ISBLANK($C9)),LEN(F9)=0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
-        <f t="shared" ref="O9:O23" si="3">AND(NOT(ISBLANK($C9)),LEN(G9)=0)</f>
+        <f t="shared" ref="O9:O20" si="3">AND(NOT(ISBLANK($C9)),LEN(G9)=0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="3" t="b">
-        <f t="shared" ref="P9:P23" si="4">AND(NOT(ISBLANK($C9)),LEN(H9)=0)</f>
+        <f t="shared" ref="P9:P20" si="4">AND(NOT(ISBLANK($C9)),LEN(H9)=0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S9" s="23">
         <v>238</v>
@@ -7147,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" s="3">
         <v>2</v>
@@ -7166,10 +8283,10 @@
       </c>
       <c r="AD9" s="10">
         <f>AD8</f>
-        <v>0.5208333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+        <v>1.6041666666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B10" s="44">
         <f>IF(LEN(C10)&lt;&gt;0,IF(OR(LEN(B9)=0,B9="^"),"^",B9+1),"")</f>
         <v>3</v>
@@ -7181,7 +8298,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="18">
         <v>2</v>
@@ -7213,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S10" s="23">
         <v>243</v>
@@ -7238,10 +8355,10 @@
       </c>
       <c r="AD10" s="63">
         <f>DAY(AD8)*24+HOUR(AD8)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B11" s="45">
         <f>IF(LEN(C11)&lt;&gt;0,IF(OR(LEN(B10)=0,B10="^"),"^",B10+1),"")</f>
         <v>4</v>
@@ -7253,7 +8370,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -7265,23 +8382,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C11)),LEN(D11)=0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C11)),LEN(E11)=0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C11)),LEN(F11)=0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C11)),LEN(G11)=0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C11)),LEN(H11)=0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="11"/>
@@ -7300,39 +8417,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="str">
-        <f t="shared" ref="B12:B42" si="5">IF(LEN(C12)&lt;&gt;0,IF(OR(LEN(B11)=0,B11="^"),"^",B11+1),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="42"/>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
+        <f>IF(LEN(C12)&lt;&gt;0,IF(OR(LEN(B11)=0,B11="^"),"^",B11+1),"")</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>80</v>
+      </c>
       <c r="L12" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C12)),LEN(D12)=0)</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C12)),LEN(E12)=0)</f>
         <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C12)),LEN(F12)=0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C12)),LEN(G12)=0)</f>
         <v>0</v>
       </c>
       <c r="P12" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C12)),LEN(H12)=0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S12" s="23">
         <v>212</v>
@@ -7347,50 +8476,62 @@
         <v>0.2</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD12" s="4">
         <f>AC8</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AE12" s="4" t="str">
         <f>AD12 &amp; " " &amp; AC12 &amp; IF(AD12 &gt; 1, "s ont été définies", " a été définie")</f>
-        <v>4 tâches ont été définies</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="41"/>
+        <v>24 tâches ont été définies</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B13" s="45">
+        <f>IF(LEN(C13)&lt;&gt;0,IF(OR(LEN(B12)=0,B12="^"),"^",B12+1),"")</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="L13" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C13)),LEN(D13)=0)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C13)),LEN(E13)=0)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C13)),LEN(F13)=0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C13)),LEN(G13)=0)</f>
         <v>0</v>
       </c>
       <c r="P13" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C13)),LEN(H13)=0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S13" s="23">
         <v>222</v>
@@ -7405,28 +8546,40 @@
         <v>0.25</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD13" s="4">
         <f>AD10</f>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AE13" s="4" t="str">
         <f>AD13 &amp; " " &amp; AC13 &amp; IF(AD13 &gt; 1, "s", "")</f>
-        <v>12 heures</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="42"/>
+        <v>38 heures</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="44">
+        <f t="shared" ref="B14:B42" si="5">IF(LEN(C14)&lt;&gt;0,IF(OR(LEN(B13)=0,B13="^"),"^",B13+1),"")</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="L14" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7448,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S14" s="23">
         <v>232</v>
@@ -7463,7 +8616,7 @@
         <v>0.3</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD14" s="4">
         <f>AD11</f>
@@ -7474,17 +8627,29 @@
         <v>30 minutes</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="str">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="L15" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7516,20 +8681,32 @@
       </c>
       <c r="AE15" s="4" t="str">
         <f>IF(AD13&gt;0,IF(AD14&gt;0,AE13&amp;" et "&amp;AE14,AE13),AE14)</f>
-        <v>12 heures et 30 minutes</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="str">
+        <v>38 heures et 30 minutes</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B16" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="42"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L16" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7551,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S16" s="23">
         <v>58</v>
@@ -7566,17 +8743,29 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="str">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B17" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="41"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="16">
+        <v>7</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7598,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S17" s="23">
         <v>82</v>
@@ -7617,40 +8806,52 @@
       </c>
       <c r="AD17" s="4">
         <f t="array" ref="AD17">SUM(($H$8:$H$42=$AC17)*$G$8:$G$42)</f>
-        <v>0.5208333333333337</v>
+        <v>0.95833333333333348</v>
       </c>
       <c r="AE17" s="4">
         <f>AD17 * 24*60</f>
-        <v>750.00000000000057</v>
+        <v>1380.0000000000002</v>
       </c>
       <c r="AF17" s="4">
         <f>DAY(AD17)*24+HOUR(AD17)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG17" s="4">
         <f>MINUTE(AD17)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="4" t="str">
         <f>AF17&amp;"h"&amp;TEXT(AG17,"00")</f>
-        <v>12h30</v>
+        <v>23h00</v>
       </c>
       <c r="AJ17" s="4">
         <f>COUNTIF($H$8:$H$42,AC17)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B18" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L18" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7672,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S18" s="23">
         <v>106</v>
@@ -7691,40 +8892,52 @@
       </c>
       <c r="AD18" s="4">
         <f t="array" ref="AD18">SUM(($H$8:$H$42=$AC18)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>0.64583333333333393</v>
       </c>
       <c r="AE18" s="4">
         <f>AD18 * 24*60</f>
-        <v>0</v>
+        <v>930.00000000000091</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" ref="AF18:AF19" si="6">DAY(AD18)*24+HOUR(AD18)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" ref="AG18:AG19" si="7">MINUTE(AD18)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" ref="AH18:AH19" si="8">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
-        <v>0h00</v>
+        <v>15h30</v>
       </c>
       <c r="AJ18" s="4">
         <f>COUNTIF($H$8:$H$42,AC18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B19" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L19" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7782,17 +8995,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="str">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B20" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="19">
+        <v>11</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L20" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7824,35 +9049,47 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="41"/>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="45">
+        <f>IF(LEN(C21)&lt;&gt;0,IF(OR(LEN(B20)=0,B20="^"),"^",B20+1),"")</f>
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="16">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="31">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L21" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C21)),LEN(D21)=0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C21)),LEN(E21)=0)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C21)),LEN(F21)=0)</f>
         <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C21)),LEN(G21)=0)</f>
         <v>0</v>
       </c>
       <c r="P21" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C21)),LEN(H21)=0)</f>
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -7866,15 +9103,15 @@
       </c>
       <c r="AD21" s="4">
         <f>SUM(AD17:AD19)</f>
-        <v>0.5208333333333337</v>
+        <v>1.6041666666666674</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" ref="AE21" si="9">AD21 * 24*60</f>
-        <v>750.00000000000057</v>
+        <v>2310.0000000000009</v>
       </c>
       <c r="AF21" s="4">
         <f t="shared" ref="AF21" si="10">DAY(AD21)*24+HOUR(AD21)</f>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" ref="AG21" si="11">MINUTE(AD21)</f>
@@ -7882,38 +9119,50 @@
       </c>
       <c r="AH21" s="4" t="str">
         <f t="shared" ref="AH21" si="12">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
-        <v>12h30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="42"/>
+        <v>38h30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="44">
+        <f>IF(LEN(C22)&lt;&gt;0,IF(OR(LEN(B21)=0,B21="^"),"^",B21+1),"")</f>
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="19">
+        <v>14</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="18">
+        <v>3</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L22" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C22)),LEN(D22)=0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C22)),LEN(E22)=0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C22)),LEN(F22)=0)</f>
         <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C22)),LEN(G22)=0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C22)),LEN(H22)=0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="3">
@@ -7926,35 +9175,47 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="41"/>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="45">
+        <f>IF(LEN(C23)&lt;&gt;0,IF(OR(LEN(B22)=0,B22="^"),"^",B22+1),"")</f>
+        <v>16</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="16">
+        <v>11</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16">
+        <v>3</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L23" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C23)),LEN(D23)=0)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="b">
-        <f t="shared" si="1"/>
+        <f>AND(NOT(ISBLANK($C23)),LEN(E23)=0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
-        <f t="shared" si="2"/>
+        <f>AND(NOT(ISBLANK($C23)),LEN(F23)=0)</f>
         <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
-        <f t="shared" si="3"/>
+        <f>AND(NOT(ISBLANK($C23)),LEN(G23)=0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="3" t="b">
-        <f t="shared" si="4"/>
+        <f>AND(NOT(ISBLANK($C23)),LEN(H23)=0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="3">
@@ -7967,12 +9228,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="str">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C24" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -7980,23 +9243,23 @@
       <c r="H24" s="42"/>
       <c r="L24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3" t="b">
         <f t="shared" ref="M24:M42" si="13">AND(NOT(ISBLANK($C24)),LEN(E24)=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" ref="N24:N42" si="14">AND(NOT(ISBLANK($C24)),LEN(F24)=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" ref="O24:O42" si="15">AND(NOT(ISBLANK($C24)),LEN(G24)=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" ref="P24:P42" si="16">AND(NOT(ISBLANK($C24)),LEN(H24)=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3">
         <v>17</v>
@@ -8008,12 +9271,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="str">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C25" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -8021,23 +9286,23 @@
       <c r="H25" s="41"/>
       <c r="L25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="3">
         <v>18</v>
@@ -8049,12 +9314,14 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="str">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C26" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -8062,23 +9329,23 @@
       <c r="H26" s="42"/>
       <c r="L26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="3">
         <v>19</v>
@@ -8090,12 +9357,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="str">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C27" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -8103,23 +9372,23 @@
       <c r="H27" s="41"/>
       <c r="L27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="3">
         <v>20</v>
@@ -8131,12 +9400,14 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="str">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B28" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C28" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -8144,23 +9415,23 @@
       <c r="H28" s="42"/>
       <c r="L28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="3">
         <v>21</v>
@@ -8172,12 +9443,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="str">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B29" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C29" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -8185,23 +9458,23 @@
       <c r="H29" s="41"/>
       <c r="L29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="3">
         <v>22</v>
@@ -8210,12 +9483,14 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="str">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B30" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C30" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -8223,23 +9498,23 @@
       <c r="H30" s="42"/>
       <c r="L30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3">
         <v>23</v>
@@ -8248,12 +9523,14 @@
         <v>0.22916666666666699</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="str">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B31" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C31" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -8261,23 +9538,23 @@
       <c r="H31" s="41"/>
       <c r="L31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="3" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3">
         <v>24</v>
@@ -8286,7 +9563,7 @@
         <v>0.23958333333333301</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8324,7 +9601,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8362,7 +9639,7 @@
         <v>0.26041666666666702</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="44" t="str">
         <f>IF(LEN(C34)&lt;&gt;0,IF(OR(LEN(B33)=0,B33="^"),"^",B33+1),"")</f>
         <v/>
@@ -8400,7 +9677,7 @@
         <v>0.27083333333333298</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8438,7 +9715,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8476,7 +9753,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8514,7 +9791,7 @@
         <v>0.30208333333333298</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8552,7 +9829,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8590,7 +9867,7 @@
         <v>0.32291666666666702</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8628,7 +9905,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8666,7 +9943,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="42" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8704,271 +9981,271 @@
         <v>0.35416666666666702</v>
       </c>
     </row>
-    <row r="43" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L43" s="3">
         <f>COUNTIF(L8:L42,TRUE)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" ref="M43:P43" si="17">COUNTIF(M8:M42,TRUE)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O43" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="8">
         <v>0.36458333333333298</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="23"/>
       <c r="L44" s="3">
         <f>SUM(L43:P43)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X44" s="8">
         <v>0.375</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L45" s="3" t="str">
         <f>IF(L44=0, "aucun champ", IF(L44=1, "1 champ", L44 &amp; " champs"))</f>
-        <v>aucun champ</v>
+        <v>40 champs</v>
       </c>
       <c r="X45" s="8">
         <v>0.38541666666666702</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="X46" s="8">
         <v>0.39583333333333398</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="X47" s="8">
         <v>0.406250000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="X48" s="8">
         <v>0.41666666666666802</v>
       </c>
     </row>
-    <row r="49" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X49" s="8">
         <v>0.42708333333333498</v>
       </c>
     </row>
-    <row r="50" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X50" s="8">
         <v>0.437500000000002</v>
       </c>
     </row>
-    <row r="51" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X51" s="8">
         <v>0.51041666666667096</v>
       </c>
     </row>
-    <row r="52" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X52" s="8">
         <v>0.52083333333333803</v>
       </c>
     </row>
-    <row r="53" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X53" s="8">
         <v>0.531250000000005</v>
       </c>
     </row>
-    <row r="54" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X54" s="8">
         <v>0.54166666666667196</v>
       </c>
     </row>
-    <row r="55" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X55" s="8">
         <v>0.55208333333333903</v>
       </c>
     </row>
-    <row r="56" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X56" s="8">
         <v>0.562500000000006</v>
       </c>
     </row>
-    <row r="57" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X57" s="8">
         <v>0.57291666666667296</v>
       </c>
     </row>
-    <row r="58" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X58" s="8">
         <v>0.58333333333334003</v>
       </c>
     </row>
-    <row r="59" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X59" s="8">
         <v>0.59375000000000699</v>
       </c>
     </row>
-    <row r="60" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X60" s="8">
         <v>0.60416666666667396</v>
       </c>
     </row>
-    <row r="61" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X61" s="8">
         <v>0.61458333333334103</v>
       </c>
     </row>
-    <row r="62" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X62" s="8">
         <v>0.62500000000000799</v>
       </c>
     </row>
-    <row r="63" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X63" s="8">
         <v>0.63541666666667496</v>
       </c>
     </row>
-    <row r="64" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X64" s="8">
         <v>0.64583333333334203</v>
       </c>
     </row>
-    <row r="65" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X65" s="8">
         <v>0.65625000000000899</v>
       </c>
     </row>
-    <row r="66" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X66" s="8">
         <v>0.66666666666667596</v>
       </c>
     </row>
-    <row r="67" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X67" s="8">
         <v>0.67708333333334303</v>
       </c>
     </row>
-    <row r="68" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X68" s="8">
         <v>0.68750000000000999</v>
       </c>
     </row>
-    <row r="69" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X69" s="8">
         <v>0.69791666666667695</v>
       </c>
     </row>
-    <row r="70" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X70" s="8">
         <v>0.70833333333334403</v>
       </c>
     </row>
-    <row r="71" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X71" s="8">
         <v>0.71875000000001099</v>
       </c>
     </row>
-    <row r="72" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X72" s="8">
         <v>0.72916666666667795</v>
       </c>
     </row>
-    <row r="73" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X73" s="8">
         <v>0.73958333333334503</v>
       </c>
     </row>
-    <row r="74" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X74" s="8">
         <v>0.75000000000001199</v>
       </c>
     </row>
-    <row r="75" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X75" s="8">
         <v>0.76041666666667895</v>
       </c>
     </row>
-    <row r="76" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X76" s="8">
         <v>0.77083333333334603</v>
       </c>
     </row>
-    <row r="77" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X77" s="8">
         <v>0.78125000000001399</v>
       </c>
     </row>
-    <row r="78" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X78" s="8">
         <v>0.79166666666668095</v>
       </c>
     </row>
-    <row r="79" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X79" s="8">
         <v>0.80208333333334803</v>
       </c>
     </row>
-    <row r="80" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X80" s="8">
         <v>0.81250000000001499</v>
       </c>
     </row>
-    <row r="81" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X81" s="8">
         <v>0.82291666666668195</v>
       </c>
     </row>
-    <row r="82" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X82" s="8">
         <v>0.83333333333334902</v>
       </c>
     </row>
-    <row r="83" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X83" s="8">
         <v>0.84375000000001599</v>
       </c>
     </row>
-    <row r="84" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X84" s="8">
         <v>0.85416666666668295</v>
       </c>
     </row>
-    <row r="85" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X85" s="8">
         <v>0.86458333333335002</v>
       </c>
     </row>
-    <row r="86" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X86" s="8">
         <v>0.87500000000001699</v>
       </c>
     </row>
-    <row r="87" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X87" s="8">
         <v>0.88541666666668395</v>
       </c>
     </row>
-    <row r="88" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X88" s="8">
         <v>0.89583333333335102</v>
       </c>
     </row>
-    <row r="89" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X89" s="8">
         <v>0.90625000000001799</v>
       </c>
     </row>
-    <row r="90" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X90" s="8">
         <v>0.91666666666668495</v>
       </c>
@@ -8979,38 +10256,38 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:H11 B19:H42 B12:B18">
-    <cfRule type="expression" dxfId="81" priority="15">
+  <conditionalFormatting sqref="B8:H11 B12:B18 B24:H25 B22:B23 B27:H42 B26 B19:H19 B21:H21 B20">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$E8="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="17">
+    <cfRule type="expression" dxfId="64" priority="69">
       <formula>$E8="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F10 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42">
-    <cfRule type="expression" dxfId="79" priority="25">
+  <conditionalFormatting sqref="F8 F10 F24 F28 F30 F32 F34 F36 F38 F40 F42">
+    <cfRule type="expression" dxfId="143" priority="77">
       <formula>$F8=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="27">
+    <cfRule type="expression" dxfId="142" priority="79">
       <formula>$F8=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="29">
+    <cfRule type="expression" dxfId="141" priority="81">
       <formula>$F8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11 F37 F39 F41 F33:F35 F31 F21:F27 F29 F19">
-    <cfRule type="expression" dxfId="76" priority="24">
+  <conditionalFormatting sqref="F9 F11 F37 F39 F41 F33:F35 F31 F29 F19 F24:F25 F27 F21">
+    <cfRule type="expression" dxfId="140" priority="76">
       <formula>$F9=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="26">
+    <cfRule type="expression" dxfId="139" priority="78">
       <formula>$F9=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="28">
+    <cfRule type="expression" dxfId="138" priority="80">
       <formula>$F9=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10 G8 G20 G22 G24 G26 G28 G30 G32 G34 G36 G38 G40 G42">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="G10 G8 G24 G28 G30 G32 G34 G36 G38 G40 G42">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -9023,8 +10300,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G11 G19 G21 G23 G25 G27 G29 G31 G33 G35 G37 G39 G41">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="G11 G9 G19 G21 G25 G27 G29 G31 G33 G35 G37 G39 G41">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -9037,63 +10314,63 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:G11 D19:G42">
-    <cfRule type="expression" dxfId="73" priority="21">
+  <conditionalFormatting sqref="D8:G11 D19:G19 D24:G25 D27:G42 D21:G21">
+    <cfRule type="expression" dxfId="60" priority="73">
       <formula>L8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H11 H19:H42">
-    <cfRule type="expression" dxfId="72" priority="20">
+  <conditionalFormatting sqref="H8:H11 H19 H24:H25 H27:H42 H21">
+    <cfRule type="expression" dxfId="59" priority="72">
       <formula>$P8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="137" priority="71">
       <formula>$L$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 B11:H11 B13 B15 B19:H19 B21:H21 B23:H23 B25:H25 B27:H27 B29:H29 B31:H31 B33:H33 B35:H35 B37:H37 B39:H39 B41:H41 B17">
-    <cfRule type="expression" dxfId="70" priority="42">
+  <conditionalFormatting sqref="B9:H9 B11:H11 B13 B15 B19:H19 B21:H21 B23 B25:H25 B27:H27 B29:H29 B31:H31 B33:H33 B35:H35 B37:H37 B39:H39 B41:H41 B17">
+    <cfRule type="expression" dxfId="136" priority="94">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8 B10:H10 B12 B14 B16 B20:H20 B22:H22 B24:H24 B26:H26 B28:H28 B30:H30 B32:H32 B34:H34 B36:H36 B38:H38 B40:H40 B42:H42 B18">
-    <cfRule type="expression" dxfId="69" priority="18">
+  <conditionalFormatting sqref="B8:H8 B10:H10 B12 B14 B16 B20 B22 B24:H24 B26 B28:H28 B30:H30 B32:H32 B34:H34 B36:H36 B38:H38 B40:H40 B42:H42 B18">
+    <cfRule type="expression" dxfId="135" priority="70">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:H18">
-    <cfRule type="expression" dxfId="68" priority="1">
+  <conditionalFormatting sqref="C12:H15 C18:H18">
+    <cfRule type="expression" dxfId="134" priority="53">
       <formula>$E12="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="133" priority="54">
       <formula>$E12="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14 F16 F18">
-    <cfRule type="expression" dxfId="66" priority="9">
+  <conditionalFormatting sqref="F12 F14 F18">
+    <cfRule type="expression" dxfId="132" priority="61">
       <formula>$F12=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11">
+    <cfRule type="expression" dxfId="131" priority="63">
       <formula>$F12=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="13">
+    <cfRule type="expression" dxfId="130" priority="65">
       <formula>$F12=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F18">
-    <cfRule type="expression" dxfId="63" priority="8">
+  <conditionalFormatting sqref="F13:F15 F18">
+    <cfRule type="expression" dxfId="129" priority="60">
       <formula>$F13=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="128" priority="62">
       <formula>$F13=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="12">
+    <cfRule type="expression" dxfId="127" priority="64">
       <formula>$F13=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12 G14 G16 G18">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="G14 G12 G18">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -9106,8 +10383,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13 G15 G17">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="G13 G15">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -9120,24 +10397,298 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:G18">
-    <cfRule type="expression" dxfId="60" priority="5">
+  <conditionalFormatting sqref="D12:G15 D18:G18">
+    <cfRule type="expression" dxfId="126" priority="57">
       <formula>L12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18">
-    <cfRule type="expression" dxfId="59" priority="4">
+  <conditionalFormatting sqref="H12:H15 H18">
+    <cfRule type="expression" dxfId="125" priority="56">
       <formula>$P12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:H13 C15:H15 C17:H17">
-    <cfRule type="expression" dxfId="58" priority="14">
+  <conditionalFormatting sqref="C13:H13 C15:H15">
+    <cfRule type="expression" dxfId="124" priority="66">
       <formula>LEN($B13)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:H12 C14:H14 C16:H16 C18:H18">
-    <cfRule type="expression" dxfId="57" priority="3">
+  <conditionalFormatting sqref="C12:H12 C14:H14 C18:H18">
+    <cfRule type="expression" dxfId="123" priority="55">
       <formula>LEN($B12)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:H23">
+    <cfRule type="expression" dxfId="56" priority="39">
+      <formula>$E22="Optionnelle"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="40">
+      <formula>$E22="Essentielle"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="54" priority="47">
+      <formula>$F22=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="49">
+      <formula>$F22=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="51">
+      <formula>$F22=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="51" priority="46">
+      <formula>$F23=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="48">
+      <formula>$F23=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>$F23=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{188F7329-C21F-470D-9249-285F262823B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFD4DEE8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF7C541F-0C25-4242-A2D0-BA4451E45AA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:G23">
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula>L22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="47" priority="42">
+      <formula>$P22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>LEN($B23)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:H22">
+    <cfRule type="expression" dxfId="45" priority="41">
+      <formula>LEN($B22)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H26">
+    <cfRule type="expression" dxfId="44" priority="27">
+      <formula>$E26="Optionnelle"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="28">
+      <formula>$E26="Essentielle"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="42" priority="34">
+      <formula>$F26=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="36">
+      <formula>$F26=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
+      <formula>$F26=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$F26=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="35">
+      <formula>$F26=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$F26=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5379E037-5C93-41C2-A177-F442D60FBEEF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:G26">
+    <cfRule type="expression" dxfId="36" priority="31">
+      <formula>L26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>$P26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H26">
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>LEN($B26)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:H17">
+    <cfRule type="expression" dxfId="33" priority="13">
+      <formula>$E16="Optionnelle"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="14">
+      <formula>$E16="Essentielle"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="31" priority="21">
+      <formula>$F16=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="23">
+      <formula>$F16=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>$F16=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>$F17=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>$F17=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$F17=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83145BEE-5151-45C3-9C28-6E1C9A660665}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFD4DEE8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09CC55B8-E89C-464B-963B-645E0551B72E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:G17">
+    <cfRule type="expression" dxfId="25" priority="17">
+      <formula>L16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>$P16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:H17">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>LEN($B17)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:H16">
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>LEN($B16)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:H20">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$E20="Optionnelle"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$E20="Essentielle"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$F20=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$F20=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$F20=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$F20=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>$F20=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>$F20=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A39162F3-B99C-4175-BB34-24A1834FD98B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:G20">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>L20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$P20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:H20">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>LEN($B20)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -9182,7 +10733,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G10 G8 G20 G22 G24 G26 G28 G30 G32 G34 G36 G38 G40 G42</xm:sqref>
+          <xm:sqref>G10 G8 G24 G28 G30 G32 G34 G36 G38 G40 G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B31D3F5F-8B5C-453E-AA05-1D4B404B0583}">
@@ -9197,7 +10748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9 G11 G19 G21 G23 G25 G27 G29 G31 G33 G35 G37 G39 G41</xm:sqref>
+          <xm:sqref>G11 G9 G19 G21 G25 G27 G29 G31 G33 G35 G37 G39 G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DF482BFD-FC88-4C58-95EE-073D9E8E17BC}">
@@ -9212,7 +10763,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G12 G14 G16 G18</xm:sqref>
+          <xm:sqref>G14 G12 G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AE595B17-0E68-43B3-8B2F-88907ED2AA84}">
@@ -9227,7 +10778,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G13 G15 G17</xm:sqref>
+          <xm:sqref>G13 G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{188F7329-C21F-470D-9249-285F262823B8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF7C541F-0C25-4242-A2D0-BA4451E45AA6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5379E037-5C93-41C2-A177-F442D60FBEEF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{83145BEE-5151-45C3-9C28-6E1C9A660665}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09CC55B8-E89C-464B-963B-645E0551B72E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A39162F3-B99C-4175-BB34-24A1834FD98B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9243,25 +10884,25 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="4" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="71.42578125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="4"/>
-    <col min="11" max="17" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="23" width="11.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="11.42578125" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="11.44140625" style="4"/>
+    <col min="11" max="17" width="11.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="11.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="11.44140625" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Sign Guesser</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -9269,9 +10910,9 @@
       <c r="F2" s="124"/>
       <c r="G2" s="124"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -9279,7 +10920,7 @@
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
     </row>
-    <row r="4" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
@@ -9287,9 +10928,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -9297,32 +10938,32 @@
       <c r="F5" s="35"/>
       <c r="G5" s="64" t="str">
         <f>IF(K44=0,CONCATENATE("Ce sprint totalise ", U14, " de travail réalisé. ",U15),CONCATENATE("Attention, il reste ",K45," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+        <v>Attention, il reste 16 champs à remplir!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <f>IF(LEN('Sprint 1 - Planification'!B8)&lt;&gt;0,'Sprint 1 - Planification'!B8,"")</f>
         <v>1</v>
@@ -9366,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B9)&lt;&gt;0,'Sprint 1 - Planification'!B9,"")</f>
         <v>2</v>
@@ -9410,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B10)&lt;&gt;0,'Sprint 1 - Planification'!B10,"")</f>
         <v>3</v>
@@ -9454,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B11)&lt;&gt;0,'Sprint 1 - Planification'!B11,"")</f>
         <v>4</v>
@@ -9490,29 +11131,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="str">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C12" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Conception de l'interface usager</v>
       </c>
       <c r="D12" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>sprint 1</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="116"/>
       <c r="G12" s="117"/>
       <c r="K12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9520,7 +11161,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="S12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" s="63">
         <f>T10</f>
@@ -9531,29 +11172,29 @@
         <v>0 heure</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="str">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C13" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Acquisition des 5 boules vertes</v>
       </c>
       <c r="D13" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
       <c r="G13" s="114"/>
       <c r="K13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9561,7 +11202,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="S13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T13" s="4">
         <f>T11</f>
@@ -9572,29 +11213,29 @@
         <v>0 minute</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="str">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C14" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Conception du diagramme de classe</v>
       </c>
       <c r="D14" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="116"/>
       <c r="G14" s="117"/>
       <c r="K14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9610,29 +11251,29 @@
         <v>0h00</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="str">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C15" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Conception des cas d'utilisation</v>
       </c>
       <c r="D15" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
       <c r="G15" s="114"/>
       <c r="K15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9641,25 +11282,25 @@
       <c r="P15" s="8"/>
       <c r="T15" s="4">
         <f t="array" ref="T15">SUM(($D$8:$D$42="Sprint 1")*($F$8:$F$42&lt;1))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U15" s="4" t="str">
         <f>IF(T15=0,"",IF(T15=1,"Une tâche est en retard!",CONCATENATE(T15," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="str">
+        <v>8 tâches sont en retard!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C16" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Créer la solution de base avec visual studio</v>
       </c>
       <c r="D16" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="115"/>
       <c r="F16" s="116"/>
@@ -9678,18 +11319,18 @@
       </c>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="str">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C17" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création des .h et .cpp de base</v>
       </c>
       <c r="D17" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -9708,18 +11349,18 @@
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="str">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C18" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Redaction du squelette de base de toutes les classes</v>
       </c>
       <c r="D18" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="118"/>
       <c r="F18" s="116"/>
@@ -9738,18 +11379,18 @@
       </c>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="str">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C19" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v xml:space="preserve">Fabrication du fond </v>
       </c>
       <c r="D19" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -9768,18 +11409,18 @@
       </c>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="str">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C20" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation du GUI</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="118"/>
       <c r="F20" s="116"/>
@@ -9798,18 +11439,18 @@
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="str">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C21" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Rediger les classes des cameras</v>
       </c>
       <c r="D21" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="113"/>
@@ -9828,18 +11469,18 @@
       </c>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="str">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C22" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="115"/>
       <c r="F22" s="116"/>
@@ -9858,18 +11499,18 @@
       </c>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="str">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C23" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D23" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="112"/>
       <c r="F23" s="113"/>
@@ -9888,14 +11529,14 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="str">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C24" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
       </c>
       <c r="D24" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
@@ -9918,14 +11559,14 @@
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="str">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C25" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D25" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
@@ -9948,14 +11589,14 @@
       </c>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="str">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C26" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D26" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
@@ -9978,14 +11619,14 @@
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="str">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C27" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D27" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
@@ -10008,14 +11649,14 @@
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="str">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C28" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D28" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
@@ -10038,14 +11679,14 @@
       </c>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="str">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C29" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D29" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
@@ -10068,14 +11709,14 @@
       </c>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="str">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C30" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D30" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
@@ -10098,14 +11739,14 @@
       </c>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="str">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C31" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D31" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
@@ -10128,7 +11769,7 @@
       </c>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
         <v/>
@@ -10158,7 +11799,7 @@
       </c>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
         <v/>
@@ -10188,7 +11829,7 @@
       </c>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
         <v/>
@@ -10218,7 +11859,7 @@
       </c>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
         <v/>
@@ -10248,7 +11889,7 @@
       </c>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
         <v/>
@@ -10278,7 +11919,7 @@
       </c>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
         <v/>
@@ -10308,7 +11949,7 @@
       </c>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
         <v/>
@@ -10338,7 +11979,7 @@
       </c>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
         <v/>
@@ -10368,7 +12009,7 @@
       </c>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B40)&lt;&gt;0,'Sprint 1 - Planification'!B40,"")</f>
         <v/>
@@ -10398,7 +12039,7 @@
       </c>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B41)&lt;&gt;0,'Sprint 1 - Planification'!B41,"")</f>
         <v/>
@@ -10428,7 +12069,7 @@
       </c>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="57" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B42)&lt;&gt;0,'Sprint 1 - Planification'!B42,"")</f>
         <v/>
@@ -10458,14 +12099,14 @@
       </c>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K43" s="3">
         <f>COUNTIF(K8:K42,TRUE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ref="L43:M43" si="4">COUNTIF(L8:L42,TRUE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="4"/>
@@ -10473,51 +12114,51 @@
       </c>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K44" s="3">
         <f>SUM(K43:M43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K45" s="3" t="str">
         <f>IF(K44=0, "aucun champ", IF(K44=1, "1 champ", K44 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>16 champs</v>
       </c>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P56" s="8"/>
     </row>
   </sheetData>
@@ -10527,97 +12168,97 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:D42">
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="122" priority="10">
       <formula>$F8=100%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="121" priority="11">
       <formula>$D8&lt;&gt;"Sprint 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:G20 E22:G22 E24:G24 E26:G26 E28:G28 E30:G30 E32:G32 E34:G34 E36:G36 E38:G38 E40:G40 E42:G42">
-    <cfRule type="expression" dxfId="54" priority="22">
+    <cfRule type="expression" dxfId="120" priority="22">
       <formula>AND($D20&lt;&gt;"Sprint 1",$F20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="24">
+    <cfRule type="expression" dxfId="119" priority="24">
       <formula>AND($D20="Sprint 1",$F20&lt;1,NOT(ISBLANK($F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:G19 E21:G21 E23:G23 E25:G25 E27:G27 E29:G29 E31:G31 E33:G33 E35:G35 E37:G37 E39:G39 E41:G41">
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="118" priority="19">
       <formula>AND($D19&lt;&gt;"Sprint 1",$F19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="117" priority="21">
       <formula>AND($D19="Sprint 1",$F19&lt;1,NOT(ISBLANK($F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G42">
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="116" priority="16">
       <formula>$M19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E42">
-    <cfRule type="expression" dxfId="49" priority="14">
+    <cfRule type="expression" dxfId="115" priority="14">
       <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F42">
-    <cfRule type="expression" dxfId="48" priority="13">
+    <cfRule type="expression" dxfId="114" priority="13">
       <formula>$L19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="113" priority="12">
       <formula>$K$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D8 B10:D10 B12:D12 B14:D14 B16:D16 B18:D18 B20:G20 B22:G22 B24:G24 B26:G26 B28:G28 B30:G30 B32:G32 B34:G34 B36:G36 B38:G38 B40:G40 B42:G42">
-    <cfRule type="expression" dxfId="46" priority="25">
+    <cfRule type="expression" dxfId="112" priority="25">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D9 B11:D11 B13:D13 B15:D15 B17:D17 B19:G19 B21:G21 B23:G23 B25:G25 B27:G27 B29:G29 B31:G31 B33:G33 B35:G35 B37:G37 B39:G39 B41:G41">
-    <cfRule type="expression" dxfId="45" priority="20">
+    <cfRule type="expression" dxfId="111" priority="20">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="110" priority="7">
       <formula>AND($D8&lt;&gt;"Sprint 1",$F8&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="109" priority="8">
       <formula>AND($D8="Sprint 1",$F8&lt;1,NOT(ISBLANK($F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="108" priority="4">
       <formula>AND($D9&lt;&gt;"Sprint 1",$F9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="107" priority="6">
       <formula>AND($D9="Sprint 1",$F9&lt;1,NOT(ISBLANK($F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G18">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="106" priority="3">
       <formula>$M8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>$K8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F18">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>$L8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="103" priority="9">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="102" priority="5">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10649,25 +12290,25 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="71.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" style="4"/>
-    <col min="13" max="19" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" style="4" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="4"/>
+    <col min="13" max="19" width="11.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Sign Guesser</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -10677,9 +12318,9 @@
       <c r="H2" s="124"/>
       <c r="I2" s="124"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -10689,7 +12330,7 @@
       <c r="H3" s="125"/>
       <c r="I3" s="125"/>
     </row>
-    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
@@ -10699,9 +12340,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10711,51 +12352,51 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>Attention, il reste 32 champs à remplir!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="133"/>
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
       <c r="I8" s="137"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <f>IF(LEN('Sprint 1 - Planification'!B8)&lt;&gt;0,'Sprint 1 - Planification'!B8,"")</f>
         <v>1</v>
@@ -10811,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B9)&lt;&gt;0,'Sprint 1 - Planification'!B9,"")</f>
         <v>2</v>
@@ -10867,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B10)&lt;&gt;0,'Sprint 1 - Planification'!B10,"")</f>
         <v>3</v>
@@ -10923,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B11)&lt;&gt;0,'Sprint 1 - Planification'!B11,"")</f>
         <v>4</v>
@@ -10970,18 +12611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="str">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Conception de l'interface usager</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>sprint 1</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E12),"",'Sprint 1 - Bilan'!E12)</f>
@@ -10996,11 +12637,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11008,11 +12649,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -11023,18 +12664,18 @@
         <v>0 heure</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="str">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Acquisition des 5 boules vertes</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E13),"",'Sprint 1 - Bilan'!E13)</f>
@@ -11049,11 +12690,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11061,11 +12702,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -11076,18 +12717,18 @@
         <v>0 minute</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="str">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Conception du diagramme de classe</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E14),"",'Sprint 1 - Bilan'!E14)</f>
@@ -11102,11 +12743,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11114,7 +12755,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -11126,18 +12767,18 @@
         <v>0h00</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="str">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Conception des cas d'utilisation</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E15),"",'Sprint 1 - Bilan'!E15)</f>
@@ -11152,11 +12793,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11164,30 +12805,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="str">
+        <v>16 tâches sont en retard!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Créer la solution de base avec visual studio</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E16),"",'Sprint 1 - Bilan'!E16)</f>
@@ -11202,11 +12843,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11214,22 +12855,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="str">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création des .h et .cpp de base</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E17),"",'Sprint 1 - Bilan'!E17)</f>
@@ -11244,11 +12885,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11256,22 +12897,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="str">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Redaction du squelette de base de toutes les classes</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E18),"",'Sprint 1 - Bilan'!E18)</f>
@@ -11287,11 +12928,11 @@
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11299,22 +12940,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="str">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v xml:space="preserve">Fabrication du fond </v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E19),"",'Sprint 1 - Bilan'!E19)</f>
@@ -11329,11 +12970,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11341,22 +12982,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="str">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation du GUI</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E20),"",'Sprint 1 - Bilan'!E20)</f>
@@ -11371,11 +13012,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11383,22 +13024,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="str">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Rediger les classes des cameras</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E21),"",'Sprint 1 - Bilan'!E21)</f>
@@ -11413,11 +13054,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11425,22 +13066,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="str">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E22),"",'Sprint 1 - Bilan'!E22)</f>
@@ -11455,11 +13096,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11467,22 +13108,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E23),"",'Sprint 1 - Bilan'!E23)</f>
@@ -11497,11 +13138,11 @@
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11509,18 +13150,18 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="str">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
@@ -11555,14 +13196,14 @@
       </c>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
@@ -11597,14 +13238,14 @@
       </c>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="str">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
@@ -11639,14 +13280,14 @@
       </c>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="str">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
@@ -11681,14 +13322,14 @@
       </c>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="str">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
@@ -11723,14 +13364,14 @@
       </c>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
@@ -11765,14 +13406,14 @@
       </c>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="str">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
@@ -11807,14 +13448,14 @@
       </c>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="str">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
@@ -11849,7 +13490,7 @@
       </c>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
         <v/>
@@ -11891,7 +13532,7 @@
       </c>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
         <v/>
@@ -11933,7 +13574,7 @@
       </c>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
         <v/>
@@ -11975,7 +13616,7 @@
       </c>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
         <v/>
@@ -12017,7 +13658,7 @@
       </c>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
         <v/>
@@ -12059,7 +13700,7 @@
       </c>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
         <v/>
@@ -12101,7 +13742,7 @@
       </c>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
         <v/>
@@ -12143,7 +13784,7 @@
       </c>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
         <v/>
@@ -12185,7 +13826,7 @@
       </c>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B40)&lt;&gt;0,'Sprint 1 - Planification'!B40,"")</f>
         <v/>
@@ -12227,7 +13868,7 @@
       </c>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B41)&lt;&gt;0,'Sprint 1 - Planification'!B41,"")</f>
         <v/>
@@ -12269,7 +13910,7 @@
       </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="57" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B42)&lt;&gt;0,'Sprint 1 - Planification'!B42,"")</f>
         <v/>
@@ -12311,14 +13952,14 @@
       </c>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12326,55 +13967,55 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>32 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R57" s="8"/>
     </row>
   </sheetData>
@@ -12391,97 +14032,97 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="101" priority="10">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="100" priority="11">
       <formula>OR($D9="Sprint 3",AND($D9="Sprint 1",$F9=100%))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="99" priority="19">
       <formula>AND($D21="Sprint 3",$H21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="20">
+    <cfRule type="expression" dxfId="98" priority="20">
       <formula>AND($D21&lt;&gt;"Sprint 3",$H21&lt;1,NOT(ISBLANK($H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="31" priority="16">
+    <cfRule type="expression" dxfId="97" priority="16">
       <formula>AND($D20="Sprint 3",$H20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="96" priority="17">
       <formula>AND($D20&lt;&gt;"Sprint 3",$H20&lt;1,NOT(ISBLANK($H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I43">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>$O20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G43">
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="94" priority="14">
       <formula>$M20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H43">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="93" priority="13">
       <formula>$N20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="92" priority="12">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F9 B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="91" priority="21">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:F10 B12:F12 B14:F14 B16:F16 B18:F18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="90" priority="18">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="89" priority="7">
       <formula>AND($D9="Sprint 3",$H9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="88" priority="8">
       <formula>AND($D9&lt;&gt;"Sprint 3",$H9&lt;1,NOT(ISBLANK($H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>AND($D10="Sprint 3",$H10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>AND($D10&lt;&gt;"Sprint 3",$H10&lt;1,NOT(ISBLANK($H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I19">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="85" priority="3">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G19">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="84" priority="2">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H19">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="82" priority="9">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="81" priority="6">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12522,25 +14163,25 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="71.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" style="4"/>
-    <col min="13" max="19" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" style="4" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="4"/>
+    <col min="13" max="19" width="11.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Sign Guesser</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -12550,9 +14191,9 @@
       <c r="H2" s="124"/>
       <c r="I2" s="124"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -12562,7 +14203,7 @@
       <c r="H3" s="125"/>
       <c r="I3" s="125"/>
     </row>
-    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
@@ -12572,9 +14213,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -12584,51 +14225,51 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>Attention, il reste 48 champs à remplir!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="133"/>
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
       <c r="I8" s="137"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <f>IF(LEN('Sprint 1 - Planification'!B8)&lt;&gt;0,'Sprint 1 - Planification'!B8,"")</f>
         <v>1</v>
@@ -12684,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B9)&lt;&gt;0,'Sprint 1 - Planification'!B9,"")</f>
         <v>2</v>
@@ -12740,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B10)&lt;&gt;0,'Sprint 1 - Planification'!B10,"")</f>
         <v>3</v>
@@ -12796,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B11)&lt;&gt;0,'Sprint 1 - Planification'!B11,"")</f>
         <v>4</v>
@@ -12843,18 +14484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="str">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Conception de l'interface usager</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>sprint 1</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
@@ -12869,11 +14510,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12881,11 +14522,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -12896,18 +14537,18 @@
         <v>0 heure</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="str">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Acquisition des 5 boules vertes</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
@@ -12922,11 +14563,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12934,11 +14575,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -12949,18 +14590,18 @@
         <v>0 minute</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="str">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Conception du diagramme de classe</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
@@ -12975,11 +14616,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12987,7 +14628,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -12999,18 +14640,18 @@
         <v>0h00</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="str">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Conception des cas d'utilisation</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 1</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
@@ -13025,11 +14666,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13037,30 +14678,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>4 tâches n'ont pas été terminé!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="str">
+        <v>24 tâches n'ont pas été terminé!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Créer la solution de base avec visual studio</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
@@ -13075,11 +14716,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13087,22 +14728,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="str">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création des .h et .cpp de base</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
@@ -13117,11 +14758,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13129,22 +14770,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="str">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Redaction du squelette de base de toutes les classes</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
@@ -13159,11 +14800,11 @@
       <c r="I19" s="117"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13171,22 +14812,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="str">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v xml:space="preserve">Fabrication du fond </v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
@@ -13201,11 +14842,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13213,22 +14854,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="str">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation du GUI</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
@@ -13243,11 +14884,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13255,22 +14896,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="str">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Rediger les classes des cameras</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
@@ -13285,11 +14926,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13297,22 +14938,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="str">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
@@ -13327,11 +14968,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13339,22 +14980,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24))</f>
@@ -13369,11 +15010,11 @@
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13381,18 +15022,18 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="str">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
@@ -13411,11 +15052,11 @@
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13423,18 +15064,18 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
@@ -13453,11 +15094,11 @@
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13465,18 +15106,18 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="str">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
@@ -13495,11 +15136,11 @@
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13507,18 +15148,18 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="str">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
@@ -13537,11 +15178,11 @@
       <c r="I28" s="114"/>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13549,18 +15190,18 @@
       </c>
       <c r="P28" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="str">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
@@ -13579,11 +15220,11 @@
       <c r="I29" s="117"/>
       <c r="M29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13591,18 +15232,18 @@
       </c>
       <c r="P29" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
@@ -13621,11 +15262,11 @@
       <c r="I30" s="114"/>
       <c r="M30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13633,18 +15274,18 @@
       </c>
       <c r="P30" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="str">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
@@ -13663,11 +15304,11 @@
       <c r="I31" s="117"/>
       <c r="M31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13675,18 +15316,18 @@
       </c>
       <c r="P31" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="str">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
@@ -13705,11 +15346,11 @@
       <c r="I32" s="114"/>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13717,11 +15358,11 @@
       </c>
       <c r="P32" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
         <v/>
@@ -13763,7 +15404,7 @@
       </c>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
         <v/>
@@ -13805,7 +15446,7 @@
       </c>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
         <v/>
@@ -13847,7 +15488,7 @@
       </c>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
         <v/>
@@ -13889,7 +15530,7 @@
       </c>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
         <v/>
@@ -13931,7 +15572,7 @@
       </c>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
         <v/>
@@ -13973,7 +15614,7 @@
       </c>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
         <v/>
@@ -14015,7 +15656,7 @@
       </c>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
         <v/>
@@ -14057,7 +15698,7 @@
       </c>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B40)&lt;&gt;0,'Sprint 1 - Planification'!B40,"")</f>
         <v/>
@@ -14099,7 +15740,7 @@
       </c>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="50" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B41)&lt;&gt;0,'Sprint 1 - Planification'!B41,"")</f>
         <v/>
@@ -14141,7 +15782,7 @@
       </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="57" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!B42)&lt;&gt;0,'Sprint 1 - Planification'!B42,"")</f>
         <v/>
@@ -14183,14 +15824,14 @@
       </c>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14198,55 +15839,55 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>48 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R54" s="8"/>
     </row>
-    <row r="55" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R57" s="8"/>
     </row>
   </sheetData>
@@ -14263,50 +15904,50 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>AND($D9&lt;&gt;"Sprint 3",$F9=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19 G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="78" priority="11">
       <formula>IF(ISBLANK($H9),IF(ISBLANK($F9),TRUE,$F9&lt;100%),$H9&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18 G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>IF(ISBLANK($H10),IF(ISBLANK($F10),TRUE,$F10&lt;100%),$H10&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I43">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G43">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H43">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:I9 B11:I11 B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="72" priority="12">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10 B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="71" priority="9">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14339,23 +15980,23 @@
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="23" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="3"/>
-    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="23" customWidth="1"/>
+    <col min="3" max="6" width="11.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" style="3"/>
+    <col min="9" max="9" width="11.44140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="3"/>
     <col min="12" max="16" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="17" max="25" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="4"/>
+    <col min="26" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
@@ -14366,25 +16007,25 @@
       <c r="I2" s="108"/>
       <c r="J2" s="108"/>
     </row>
-    <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
     </row>
-    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -14395,8 +16036,8 @@
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
     </row>
-    <row r="6" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="93"/>
       <c r="C7" s="94" t="s">
         <v>1</v>
@@ -14408,7 +16049,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -14421,17 +16062,17 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="95">
         <f>L8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="96">
         <f>M8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="97">
         <f>N8</f>
@@ -14439,17 +16080,17 @@
       </c>
       <c r="F8" s="101">
         <f>O8</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="L8" s="1">
         <f>'Sprint 1 - Planification'!AJ17</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1">
         <f>'Sprint 1 - Planification'!AJ18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
@@ -14457,24 +16098,24 @@
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="98" t="str">
         <f t="shared" ref="C9:F10" si="0">DAY(L9)*24+HOUR(L9)&amp;"h"&amp;TEXT(MINUTE(L9),"00")</f>
-        <v>12h30</v>
+        <v>23h00</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>15h30</v>
       </c>
       <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
@@ -14482,17 +16123,17 @@
       </c>
       <c r="F9" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>12h30</v>
+        <v>38h30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="L9" s="1">
         <f>'Sprint 1 - Planification'!AD17</f>
-        <v>0.5208333333333337</v>
+        <v>0.95833333333333348</v>
       </c>
       <c r="M9" s="1">
         <f>'Sprint 1 - Planification'!AD18</f>
-        <v>0</v>
+        <v>0.64583333333333393</v>
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
@@ -14500,41 +16141,41 @@
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
-        <v>0.5208333333333337</v>
+        <v>1.6041666666666674</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9:S10" si="1">DAY(L9)*24+HOUR(L9)+MINUTE(L9)/60</f>
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -14571,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
@@ -14586,71 +16227,71 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="104">
         <f>L11</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1">
         <f>'Sprint 1 - Bilan'!T15</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="X11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="84"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -14667,7 +16308,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="84"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -14684,7 +16325,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="84"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14698,7 +16339,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="84"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -14712,7 +16353,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="84"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -14729,7 +16370,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="84"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -14746,30 +16387,30 @@
       <c r="O17" s="11"/>
       <c r="P17" s="23"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O18" s="11"/>
       <c r="P18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O19" s="11"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O21" s="11"/>
       <c r="P21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O22" s="11"/>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O23" s="11"/>
       <c r="P23" s="23"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZTHIqTmr8cTliRMGAcUcmM0mjbf6CIJ0mHH1g8KtGLF4lRA/UYuFPwpT4A16q2cQqIx/6PesESjQGKIAV9ov5g==" saltValue="9FKXXuq3MsinQZgjNrQSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="70" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14786,22 +16427,22 @@
       <selection activeCell="AQ41" sqref="AQ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="23" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="4"/>
-    <col min="11" max="11" width="11.42578125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" style="23" customWidth="1"/>
+    <col min="5" max="8" width="11.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="4"/>
+    <col min="11" max="11" width="11.44140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
@@ -14810,9 +16451,9 @@
       <c r="G2" s="138"/>
       <c r="H2" s="138"/>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="81"/>
@@ -14821,7 +16462,7 @@
       <c r="G3" s="86"/>
       <c r="H3" s="86"/>
     </row>
-    <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="82"/>
@@ -14830,9 +16471,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="83"/>
@@ -14841,11 +16482,11 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60"/>
     </row>
-    <row r="6" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="1"/>
@@ -14853,27 +16494,27 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="84"/>
       <c r="D8" s="84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="D9" s="84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="D10" s="84"/>
       <c r="E10" s="1"/>
@@ -14881,10 +16522,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="1"/>
@@ -14892,79 +16533,79 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="D12" s="84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="D13" s="84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="D14" s="84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="D15" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="D16" s="84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="D18" s="84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="20" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="83"/>
@@ -14973,11 +16614,11 @@
       <c r="G20" s="29"/>
       <c r="H20" s="60"/>
     </row>
-    <row r="21" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="1"/>
@@ -14985,37 +16626,37 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="84"/>
       <c r="D23" s="84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="D24" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="D25" s="84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="D26" s="84"/>
       <c r="E26" s="1"/>
@@ -15023,9 +16664,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="83"/>
@@ -15034,11 +16675,11 @@
       <c r="G28" s="29"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="1"/>
@@ -15046,7 +16687,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="84"/>
       <c r="E31" s="1"/>
@@ -15054,9 +16695,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="33" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="83"/>
@@ -15065,11 +16706,11 @@
       <c r="G33" s="29"/>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="139" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="139"/>
       <c r="E35" s="139"/>
@@ -15077,7 +16718,7 @@
       <c r="G35" s="139"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="84"/>
       <c r="E36" s="1"/>
@@ -15092,22 +16733,22 @@
     <mergeCell ref="C35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="3" priority="69">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Vincent Thomassin-Rochon</t>
   </si>
   <si>
-    <t>Créer la solution de base avec visual studio</t>
-  </si>
-  <si>
     <t>Création des .h et .cpp de base</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
   </si>
   <si>
     <t>sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrication du fond </t>
   </si>
   <si>
     <t>Conception du diagramme de classe</t>
@@ -418,9 +412,6 @@
     <t>Afficher une image prise de la camera sur le GUI</t>
   </si>
   <si>
-    <t>Rediger les classes des cameras</t>
-  </si>
-  <si>
     <t>Coder les classes dont les classes d'algorightme heriterons</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t xml:space="preserve">Coder algorithme de segmentation </t>
   </si>
   <si>
-    <t xml:space="preserve">Coder algorithme de filtrage par rang </t>
-  </si>
-  <si>
     <t>Coder algorithme de remplissage d'intérieur</t>
   </si>
   <si>
@@ -446,6 +434,33 @@
   </si>
   <si>
     <t>Coder classe pour les differents nœuds de convolution</t>
+  </si>
+  <si>
+    <t>Coder Classe comparaison des resultats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coder algorithme de filtre par rang </t>
+  </si>
+  <si>
+    <t>Créer la solution de base avec visual studio (&amp; github)</t>
+  </si>
+  <si>
+    <t>Fabrication du fond de l'image</t>
+  </si>
+  <si>
+    <t>Coder les classes des cameras</t>
+  </si>
+  <si>
+    <t>Coder Classe pour connection/ajout/suppression a la base de donnée</t>
+  </si>
+  <si>
+    <t>Elles ont été commandées sur amazon, mais pas encore arrivées,</t>
+  </si>
+  <si>
+    <t>Calculer la distance entre la camera et le fond pour le cadre</t>
+  </si>
+  <si>
+    <t>Afficher constament sur le GUI l'image de la camera</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1525,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="152">
     <dxf>
       <fill>
         <patternFill>
@@ -1695,6 +1710,871 @@
       <font>
         <b val="0"/>
         <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B400"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFD1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B400"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFD1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B400"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFD1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B400"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFD1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
       </font>
     </dxf>
     <dxf>
@@ -2519,6 +3399,68 @@
       <fill>
         <gradientFill>
           <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
             <color rgb="FFE9EEF3"/>
           </stop>
           <stop position="0.5">
@@ -2587,657 +3529,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B400"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFD1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B400"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFD1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B400"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFD1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B400"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFD1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEDEEEF"/>
@@ -3250,6 +3541,13 @@
           <bgColor rgb="FFDCDEE0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3430,151 +3728,6 @@
         <i/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3738,10 +3891,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3812,13 +3965,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,13 +4311,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,7 +4384,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4660,10 +4813,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,10 +4930,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,13 +5269,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,10 +5392,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8029,8 +8182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8095,7 +8248,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60" t="str">
         <f>IF(L44=0,CONCATENATE(AE12, " totalisant ", AE15, " de travail estimé."),CONCATENATE("Attention, il reste " &amp; L45 &amp; " à remplir."))</f>
-        <v>Attention, il reste 40 champs à remplir.</v>
+        <v>28 tâches ont été définies totalisant 89 heures de travail estimé.</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8178,7 +8331,7 @@
       </c>
       <c r="U8" s="3">
         <f>MAX(B8:B42)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>18</v>
@@ -8204,11 +8357,11 @@
       </c>
       <c r="AC8" s="4">
         <f>COUNTA(C8:C43)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(G8:G43)</f>
-        <v>1.6041666666666672</v>
+        <v>3.7083333333333348</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
@@ -8283,7 +8436,7 @@
       </c>
       <c r="AD9" s="10">
         <f>AD8</f>
-        <v>1.6041666666666672</v>
+        <v>3.7083333333333348</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
@@ -8304,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="32">
-        <v>0.22916666666666699</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>1</v>
@@ -8355,7 +8508,7 @@
       </c>
       <c r="AD10" s="63">
         <f>DAY(AD8)*24+HOUR(AD8)</f>
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
@@ -8382,23 +8535,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C11)),LEN(D11)=0)</f>
+        <f t="shared" ref="L11:P13" si="5">AND(NOT(ISBLANK($C11)),LEN(D11)=0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C11)),LEN(E11)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C11)),LEN(F11)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C11)),LEN(G11)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P11" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C11)),LEN(H11)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R11" s="11"/>
@@ -8414,7 +8567,7 @@
       </c>
       <c r="AD11" s="4">
         <f>MINUTE(AD8)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
@@ -8423,7 +8576,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>11</v>
@@ -8438,26 +8591,26 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C12)),LEN(D12)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C12)),LEN(E12)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C12)),LEN(F12)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C12)),LEN(G12)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P12" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C12)),LEN(H12)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
@@ -8480,11 +8633,11 @@
       </c>
       <c r="AD12" s="4">
         <f>AC8</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE12" s="4" t="str">
         <f>AD12 &amp; " " &amp; AC12 &amp; IF(AD12 &gt; 1, "s ont été définies", " a été définie")</f>
-        <v>24 tâches ont été définies</v>
+        <v>28 tâches ont été définies</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
@@ -8493,7 +8646,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>11</v>
@@ -8511,23 +8664,23 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C13)),LEN(D13)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C13)),LEN(E13)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C13)),LEN(F13)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C13)),LEN(G13)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C13)),LEN(H13)=0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="11" t="s">
@@ -8550,20 +8703,20 @@
       </c>
       <c r="AD13" s="4">
         <f>AD10</f>
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="4" t="str">
         <f>AD13 &amp; " " &amp; AC13 &amp; IF(AD13 &gt; 1, "s", "")</f>
-        <v>38 heures</v>
+        <v>89 heures</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B14" s="44">
-        <f t="shared" ref="B14:B42" si="5">IF(LEN(C14)&lt;&gt;0,IF(OR(LEN(B13)=0,B13="^"),"^",B13+1),"")</f>
+        <f t="shared" ref="B14:B42" si="6">IF(LEN(C14)&lt;&gt;0,IF(OR(LEN(B13)=0,B13="^"),"^",B13+1),"")</f>
         <v>7</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="19">
         <v>3</v>
@@ -8620,20 +8773,20 @@
       </c>
       <c r="AD14" s="4">
         <f>AD11</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="4" t="str">
         <f>AD14 &amp; " " &amp; AC14 &amp; IF(AD14 &gt; 1, "s", "")</f>
-        <v>30 minutes</v>
+        <v>0 minute</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B15" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="16">
         <v>3</v>
@@ -8681,16 +8834,16 @@
       </c>
       <c r="AE15" s="4" t="str">
         <f>IF(AD13&gt;0,IF(AD14&gt;0,AE13&amp;" et "&amp;AE14,AE13),AE14)</f>
-        <v>38 heures et 30 minutes</v>
+        <v>89 heures</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B16" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>11</v>
@@ -8702,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="32">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>2</v>
@@ -8745,11 +8898,11 @@
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="16">
         <v>7</v>
@@ -8761,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="31">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>2</v>
@@ -8806,23 +8959,23 @@
       </c>
       <c r="AD17" s="4">
         <f t="array" ref="AD17">SUM(($H$8:$H$42=$AC17)*$G$8:$G$42)</f>
-        <v>0.95833333333333348</v>
+        <v>1.0208333333333335</v>
       </c>
       <c r="AE17" s="4">
         <f>AD17 * 24*60</f>
-        <v>1380.0000000000002</v>
+        <v>1470.0000000000002</v>
       </c>
       <c r="AF17" s="4">
         <f>DAY(AD17)*24+HOUR(AD17)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG17" s="4">
         <f>MINUTE(AD17)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH17" s="4" t="str">
         <f>AF17&amp;"h"&amp;TEXT(AG17,"00")</f>
-        <v>23h00</v>
+        <v>24h30</v>
       </c>
       <c r="AJ17" s="4">
         <f>COUNTIF($H$8:$H$42,AC17)</f>
@@ -8831,11 +8984,11 @@
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B18" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="18">
         <v>8</v>
@@ -8892,36 +9045,36 @@
       </c>
       <c r="AD18" s="4">
         <f t="array" ref="AD18">SUM(($H$8:$H$42=$AC18)*$G$8:$G$42)</f>
-        <v>0.64583333333333393</v>
+        <v>1.6875000000000013</v>
       </c>
       <c r="AE18" s="4">
         <f>AD18 * 24*60</f>
-        <v>930.00000000000091</v>
+        <v>2430.0000000000018</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" ref="AF18:AF19" si="6">DAY(AD18)*24+HOUR(AD18)</f>
-        <v>15</v>
+        <f t="shared" ref="AF18:AF19" si="7">DAY(AD18)*24+HOUR(AD18)</f>
+        <v>40</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" ref="AG18:AG19" si="7">MINUTE(AD18)</f>
+        <f t="shared" ref="AG18:AG19" si="8">MINUTE(AD18)</f>
         <v>30</v>
       </c>
       <c r="AH18" s="4" t="str">
-        <f t="shared" ref="AH18:AH19" si="8">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
-        <v>15h30</v>
+        <f t="shared" ref="AH18:AH19" si="9">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
+        <v>40h30</v>
       </c>
       <c r="AJ18" s="4">
         <f>COUNTIF($H$8:$H$42,AC18)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B19" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>11</v>
@@ -8972,36 +9125,36 @@
       </c>
       <c r="AD19" s="4">
         <f t="array" ref="AD19">SUM(($H$8:$H$42=$AC19)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="4">
         <f>AD19 * 24*60</f>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH19" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0h00</v>
+        <f t="shared" si="9"/>
+        <v>24h00</v>
       </c>
       <c r="AJ19" s="4">
         <f>COUNTIF($H$8:$H$42,AC19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="19">
         <v>11</v>
@@ -9013,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="32">
-        <v>8.3333333333333301E-2</v>
+        <v>0.125</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>2</v>
@@ -9055,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D21" s="16">
         <v>11</v>
@@ -9067,29 +9220,29 @@
         <v>2</v>
       </c>
       <c r="G21" s="31">
-        <v>8.3333333333333301E-2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H21" s="41" t="s">
         <v>2</v>
       </c>
       <c r="L21" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C21)),LEN(D21)=0)</f>
+        <f t="shared" ref="L21:P21" si="10">AND(NOT(ISBLANK($C21)),LEN(D21)=0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C21)),LEN(E21)=0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C21)),LEN(F21)=0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C21)),LEN(G21)=0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P21" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C21)),LEN(H21)=0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -9103,23 +9256,23 @@
       </c>
       <c r="AD21" s="4">
         <f>SUM(AD17:AD19)</f>
-        <v>1.6041666666666674</v>
+        <v>3.7083333333333348</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" ref="AE21" si="9">AD21 * 24*60</f>
-        <v>2310.0000000000009</v>
+        <f t="shared" ref="AE21" si="11">AD21 * 24*60</f>
+        <v>5340.0000000000018</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" ref="AF21" si="10">DAY(AD21)*24+HOUR(AD21)</f>
-        <v>38</v>
+        <f t="shared" ref="AF21" si="12">DAY(AD21)*24+HOUR(AD21)</f>
+        <v>89</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21" si="11">MINUTE(AD21)</f>
-        <v>30</v>
+        <f t="shared" ref="AG21" si="13">MINUTE(AD21)</f>
+        <v>0</v>
       </c>
       <c r="AH21" s="4" t="str">
-        <f t="shared" ref="AH21" si="12">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
-        <v>38h30</v>
+        <f t="shared" ref="AH21" si="14">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
+        <v>89h00</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
@@ -9128,19 +9281,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="19">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="32">
-        <v>0.16666666666666699</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H22" s="42" t="s">
         <v>2</v>
@@ -9180,22 +9333,22 @@
         <f>IF(LEN(C23)&lt;&gt;0,IF(OR(LEN(B22)=0,B22="^"),"^",B22+1),"")</f>
         <v>16</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="16">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19">
+        <v>14</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="32">
         <v>0.16666666666666699</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="42" t="s">
         <v>2</v>
       </c>
       <c r="L23" s="3" t="b">
@@ -9230,36 +9383,46 @@
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24" s="44">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C24)&lt;&gt;0,IF(OR(LEN(B23)=0,B23="^"),"^",B23+1),"")</f>
         <v>17</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16">
+        <v>11</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="16">
+        <v>3</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L24" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C24)),LEN(D24)=0)</f>
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="b">
-        <f t="shared" ref="M24:M42" si="13">AND(NOT(ISBLANK($C24)),LEN(E24)=0)</f>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C24)),LEN(E24)=0)</f>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="b">
-        <f t="shared" ref="N24:N42" si="14">AND(NOT(ISBLANK($C24)),LEN(F24)=0)</f>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C24)),LEN(F24)=0)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
-        <f t="shared" ref="O24:O42" si="15">AND(NOT(ISBLANK($C24)),LEN(G24)=0)</f>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C24)),LEN(G24)=0)</f>
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="b">
-        <f t="shared" ref="P24:P42" si="16">AND(NOT(ISBLANK($C24)),LEN(H24)=0)</f>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C24)),LEN(H24)=0)</f>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>17</v>
@@ -9273,36 +9436,46 @@
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C25)&lt;&gt;0,IF(OR(LEN(B24)=0,B24="^"),"^",B24+1),"")</f>
         <v>18</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="19">
+        <v>17</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L25" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C25)),LEN(D25)=0)</f>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C25)),LEN(E25)=0)</f>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C25)),LEN(F25)=0)</f>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C25)),LEN(G25)=0)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C25)),LEN(H25)=0)</f>
+        <v>0</v>
       </c>
       <c r="T25" s="3">
         <v>18</v>
@@ -9316,36 +9489,46 @@
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26" s="44">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C26)&lt;&gt;0,IF(OR(LEN(B25)=0,B25="^"),"^",B25+1),"")</f>
         <v>19</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="16">
+        <v>17</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L26" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C26)),LEN(D26)=0)</f>
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C26)),LEN(E26)=0)</f>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C26)),LEN(F26)=0)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C26)),LEN(G26)=0)</f>
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C26)),LEN(H26)=0)</f>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>19</v>
@@ -9359,36 +9542,46 @@
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C27)&lt;&gt;0,IF(OR(LEN(B26)=0,B26="^"),"^",B26+1),"")</f>
         <v>20</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="19">
+        <v>17</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L27" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C27)),LEN(D27)=0)</f>
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C27)),LEN(E27)=0)</f>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C27)),LEN(F27)=0)</f>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C27)),LEN(G27)=0)</f>
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C27)),LEN(H27)=0)</f>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>20</v>
@@ -9402,36 +9595,46 @@
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B28" s="44">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C28)&lt;&gt;0,IF(OR(LEN(B27)=0,B27="^"),"^",B27+1),"")</f>
         <v>21</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="42"/>
+      <c r="C28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="16">
+        <v>17</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
+      <c r="G28" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L28" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C28)),LEN(D28)=0)</f>
+        <v>0</v>
       </c>
       <c r="M28" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C28)),LEN(E28)=0)</f>
+        <v>0</v>
       </c>
       <c r="N28" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C28)),LEN(F28)=0)</f>
+        <v>0</v>
       </c>
       <c r="O28" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C28)),LEN(G28)=0)</f>
+        <v>0</v>
       </c>
       <c r="P28" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C28)),LEN(H28)=0)</f>
+        <v>0</v>
       </c>
       <c r="T28" s="3">
         <v>21</v>
@@ -9445,36 +9648,46 @@
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C29)&lt;&gt;0,IF(OR(LEN(B28)=0,B28="^"),"^",B28+1),"")</f>
         <v>22</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="41"/>
+      <c r="C29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="18">
+        <v>17</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="18">
+        <v>3</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L29" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C29)),LEN(D29)=0)</f>
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C29)),LEN(E29)=0)</f>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C29)),LEN(F29)=0)</f>
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C29)),LEN(G29)=0)</f>
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C29)),LEN(H29)=0)</f>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>22</v>
@@ -9485,36 +9698,46 @@
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B30" s="44">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C30)&lt;&gt;0,IF(OR(LEN(B29)=0,B29="^"),"^",B29+1),"")</f>
         <v>23</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="16">
+        <v>17</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="16">
+        <v>3</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C30)),LEN(D30)=0)</f>
+        <v>0</v>
       </c>
       <c r="M30" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C30)),LEN(E30)=0)</f>
+        <v>0</v>
       </c>
       <c r="N30" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C30)),LEN(F30)=0)</f>
+        <v>0</v>
       </c>
       <c r="O30" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C30)),LEN(G30)=0)</f>
+        <v>0</v>
       </c>
       <c r="P30" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C30)),LEN(H30)=0)</f>
+        <v>0</v>
       </c>
       <c r="T30" s="3">
         <v>23</v>
@@ -9525,36 +9748,46 @@
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
-        <f t="shared" si="5"/>
+        <f>IF(LEN(C31)&lt;&gt;0,IF(OR(LEN(B30)=0,B30="^"),"^",B30+1),"")</f>
         <v>24</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="41"/>
+      <c r="C31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="19">
+        <v>17</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L31" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C31)),LEN(D31)=0)</f>
+        <v>0</v>
       </c>
       <c r="M31" s="3" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C31)),LEN(E31)=0)</f>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C31)),LEN(F31)=0)</f>
+        <v>0</v>
       </c>
       <c r="O31" s="3" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C31)),LEN(G31)=0)</f>
+        <v>0</v>
       </c>
       <c r="P31" s="3" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>AND(NOT(ISBLANK($C31)),LEN(H31)=0)</f>
+        <v>0</v>
       </c>
       <c r="T31" s="3">
         <v>24</v>
@@ -9564,34 +9797,46 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="42"/>
+      <c r="B32" s="44">
+        <f>IF(LEN(C32)&lt;&gt;0,IF(OR(LEN(B31)=0,B31="^"),"^",B31+1),"")</f>
+        <v>25</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="16">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L32" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C32)),LEN(D32)=0)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f>AND(NOT(ISBLANK($C32)),LEN(E32)=0)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f>AND(NOT(ISBLANK($C32)),LEN(F32)=0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f>AND(NOT(ISBLANK($C32)),LEN(G32)=0)</f>
         <v>0</v>
       </c>
       <c r="P32" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f>AND(NOT(ISBLANK($C32)),LEN(H32)=0)</f>
         <v>0</v>
       </c>
       <c r="T32" s="3">
@@ -9602,34 +9847,46 @@
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="41"/>
+      <c r="B33" s="45">
+        <f>IF(LEN(C33)&lt;&gt;0,IF(OR(LEN(B32)=0,B32="^"),"^",B32+1),"")</f>
+        <v>26</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L33" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C33)),LEN(D33)=0)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f>AND(NOT(ISBLANK($C33)),LEN(E33)=0)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f>AND(NOT(ISBLANK($C33)),LEN(F33)=0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f>AND(NOT(ISBLANK($C33)),LEN(G33)=0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f>AND(NOT(ISBLANK($C33)),LEN(H33)=0)</f>
         <v>0</v>
       </c>
       <c r="T33" s="3">
@@ -9640,34 +9897,46 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="44">
         <f>IF(LEN(C34)&lt;&gt;0,IF(OR(LEN(B33)=0,B33="^"),"^",B33+1),"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="16">
+        <v>17</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L34" s="3" t="b">
-        <f t="shared" si="0"/>
+        <f>AND(NOT(ISBLANK($C34)),LEN(D34)=0)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f>AND(NOT(ISBLANK($C34)),LEN(E34)=0)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f>AND(NOT(ISBLANK($C34)),LEN(F34)=0)</f>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f>AND(NOT(ISBLANK($C34)),LEN(G34)=0)</f>
         <v>0</v>
       </c>
       <c r="P34" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f>AND(NOT(ISBLANK($C34)),LEN(H34)=0)</f>
         <v>0</v>
       </c>
       <c r="T34" s="3">
@@ -9678,34 +9947,46 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="41"/>
+      <c r="B35" s="45">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="16">
+        <v>12</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
+      <c r="G35" s="31">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L35" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M35:M42" si="15">AND(NOT(ISBLANK($C35)),LEN(E35)=0)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="N35:N42" si="16">AND(NOT(ISBLANK($C35)),LEN(F35)=0)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="O35:O42" si="17">AND(NOT(ISBLANK($C35)),LEN(G35)=0)</f>
         <v>0</v>
       </c>
       <c r="P35" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P35:P42" si="18">AND(NOT(ISBLANK($C35)),LEN(H35)=0)</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
@@ -9717,7 +9998,7 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C36" s="17"/>
@@ -9731,19 +10012,19 @@
         <v>0</v>
       </c>
       <c r="M36" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O36" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P36" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T36" s="3">
@@ -9755,7 +10036,7 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C37" s="15"/>
@@ -9769,19 +10050,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T37" s="3">
@@ -9793,7 +10074,7 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C38" s="17"/>
@@ -9807,19 +10088,19 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O38" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P38" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T38" s="3">
@@ -9831,7 +10112,7 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C39" s="15"/>
@@ -9845,19 +10126,19 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O39" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P39" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="3">
@@ -9869,7 +10150,7 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C40" s="17"/>
@@ -9883,19 +10164,19 @@
         <v>0</v>
       </c>
       <c r="M40" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O40" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P40" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T40" s="3">
@@ -9907,7 +10188,7 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C41" s="15"/>
@@ -9921,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P41" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T41" s="3">
@@ -9945,7 +10226,7 @@
     </row>
     <row r="42" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C42" s="36"/>
@@ -9959,19 +10240,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O42" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P42" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T42" s="3">
@@ -9984,23 +10265,23 @@
     <row r="43" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L43" s="3">
         <f>COUNTIF(L8:L42,TRUE)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" ref="M43:P43" si="17">COUNTIF(M8:M42,TRUE)</f>
-        <v>8</v>
+        <f t="shared" ref="M43:P43" si="19">COUNTIF(M8:M42,TRUE)</f>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="17"/>
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="17"/>
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="17"/>
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="X43" s="8">
         <v>0.36458333333333298</v>
@@ -10010,7 +10291,7 @@
       <c r="B44" s="23"/>
       <c r="L44" s="3">
         <f>SUM(L43:P43)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X44" s="8">
         <v>0.375</v>
@@ -10019,7 +10300,7 @@
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L45" s="3" t="str">
         <f>IF(L44=0, "aucun champ", IF(L44=1, "1 champ", L44 &amp; " champs"))</f>
-        <v>40 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="X45" s="8">
         <v>0.38541666666666702</v>
@@ -10256,38 +10537,38 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:H11 B12:B18 B24:H25 B22:B23 B27:H42 B26 B19:H19 B21:H21 B20">
-    <cfRule type="expression" dxfId="65" priority="67">
+  <conditionalFormatting sqref="B8:H11 B12:B18 B24:H25 B22:B23 B26 B19:H19 B21:H21 B20 C25:H26 B27:H42">
+    <cfRule type="expression" dxfId="151" priority="96">
       <formula>$E8="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="69">
+    <cfRule type="expression" dxfId="150" priority="98">
       <formula>$E8="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 F10 F24 F28 F30 F32 F34 F36 F38 F40 F42">
-    <cfRule type="expression" dxfId="143" priority="77">
+    <cfRule type="expression" dxfId="149" priority="106">
       <formula>$F8=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="79">
+    <cfRule type="expression" dxfId="148" priority="108">
       <formula>$F8=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="81">
+    <cfRule type="expression" dxfId="147" priority="110">
       <formula>$F8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11 F37 F39 F41 F33:F35 F31 F29 F19 F24:F25 F27 F21">
-    <cfRule type="expression" dxfId="140" priority="76">
+  <conditionalFormatting sqref="F9 F11 F37 F39 F41 F19 F21 F24:F35">
+    <cfRule type="expression" dxfId="146" priority="105">
       <formula>$F9=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="78">
+    <cfRule type="expression" dxfId="145" priority="107">
       <formula>$F9=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="80">
+    <cfRule type="expression" dxfId="144" priority="109">
       <formula>$F9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G8 G24 G28 G30 G32 G34 G36 G38 G40 G42">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10301,7 +10582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G9 G19 G21 G25 G27 G29 G31 G33 G35 G37 G39 G41">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10314,63 +10595,63 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:G11 D19:G19 D24:G25 D27:G42 D21:G21">
-    <cfRule type="expression" dxfId="60" priority="73">
+  <conditionalFormatting sqref="D8:G11 D19:G19 D21:G21 D24:G42">
+    <cfRule type="expression" dxfId="143" priority="102">
       <formula>L8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H11 H19 H24:H25 H27:H42 H21">
-    <cfRule type="expression" dxfId="59" priority="72">
+  <conditionalFormatting sqref="H8:H11 H19 H21 H24:H42">
+    <cfRule type="expression" dxfId="142" priority="101">
       <formula>$P8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="137" priority="71">
+    <cfRule type="expression" dxfId="141" priority="100">
       <formula>$L$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:H9 B11:H11 B13 B15 B19:H19 B21:H21 B23 B25:H25 B27:H27 B29:H29 B31:H31 B33:H33 B35:H35 B37:H37 B39:H39 B41:H41 B17">
-    <cfRule type="expression" dxfId="136" priority="94">
+    <cfRule type="expression" dxfId="140" priority="123">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 B10:H10 B12 B14 B16 B20 B22 B24:H24 B26 B28:H28 B30:H30 B32:H32 B34:H34 B36:H36 B38:H38 B40:H40 B42:H42 B18">
-    <cfRule type="expression" dxfId="135" priority="70">
+    <cfRule type="expression" dxfId="139" priority="99">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:H15 C18:H18">
-    <cfRule type="expression" dxfId="134" priority="53">
+    <cfRule type="expression" dxfId="138" priority="82">
       <formula>$E12="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="54">
+    <cfRule type="expression" dxfId="137" priority="83">
       <formula>$E12="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14 F18">
-    <cfRule type="expression" dxfId="132" priority="61">
+    <cfRule type="expression" dxfId="136" priority="90">
       <formula>$F12=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="63">
+    <cfRule type="expression" dxfId="135" priority="92">
       <formula>$F12=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="65">
+    <cfRule type="expression" dxfId="134" priority="94">
       <formula>$F12=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15 F18">
-    <cfRule type="expression" dxfId="129" priority="60">
+    <cfRule type="expression" dxfId="133" priority="89">
       <formula>$F13=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="62">
+    <cfRule type="expression" dxfId="132" priority="91">
       <formula>$F13=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="64">
+    <cfRule type="expression" dxfId="131" priority="93">
       <formula>$F13=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 G12 G18">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="G12 G14 G18">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10384,7 +10665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 G15">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10398,57 +10679,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:G15 D18:G18">
-    <cfRule type="expression" dxfId="126" priority="57">
+    <cfRule type="expression" dxfId="130" priority="86">
       <formula>L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H15 H18">
-    <cfRule type="expression" dxfId="125" priority="56">
+    <cfRule type="expression" dxfId="129" priority="85">
       <formula>$P12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:H13 C15:H15">
-    <cfRule type="expression" dxfId="124" priority="66">
+    <cfRule type="expression" dxfId="128" priority="95">
       <formula>LEN($B13)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:H12 C14:H14 C18:H18">
-    <cfRule type="expression" dxfId="123" priority="55">
+    <cfRule type="expression" dxfId="127" priority="84">
       <formula>LEN($B12)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:H23">
-    <cfRule type="expression" dxfId="56" priority="39">
+  <conditionalFormatting sqref="C22:H24">
+    <cfRule type="expression" dxfId="126" priority="68">
       <formula>$E22="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="40">
+    <cfRule type="expression" dxfId="125" priority="69">
       <formula>$E22="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="54" priority="47">
+    <cfRule type="expression" dxfId="124" priority="76">
       <formula>$F22=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="123" priority="78">
       <formula>$F22=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="51">
+    <cfRule type="expression" dxfId="122" priority="80">
       <formula>$F22=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="51" priority="46">
+    <cfRule type="expression" dxfId="121" priority="75">
       <formula>$F23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="120" priority="77">
       <formula>$F23=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="119" priority="79">
       <formula>$F23=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10462,7 +10743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10475,58 +10756,58 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:G23">
-    <cfRule type="expression" dxfId="48" priority="43">
+  <conditionalFormatting sqref="D22:G24">
+    <cfRule type="expression" dxfId="118" priority="72">
       <formula>L22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="47" priority="42">
+  <conditionalFormatting sqref="H22:H24">
+    <cfRule type="expression" dxfId="117" priority="71">
       <formula>$P22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="116" priority="81">
       <formula>LEN($B23)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:H22">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="115" priority="70">
       <formula>LEN($B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:H26">
-    <cfRule type="expression" dxfId="44" priority="27">
+    <cfRule type="expression" dxfId="114" priority="56">
       <formula>$E26="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="28">
+    <cfRule type="expression" dxfId="113" priority="57">
       <formula>$E26="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="112" priority="63">
       <formula>$F26=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="36">
+    <cfRule type="expression" dxfId="111" priority="65">
       <formula>$F26=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="110" priority="67">
       <formula>$F26=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="109" priority="62">
       <formula>$F26=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="108" priority="64">
       <formula>$F26=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="107" priority="66">
       <formula>$F26=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10540,52 +10821,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:G26">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="106" priority="60">
       <formula>L26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="105" priority="59">
       <formula>$P26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:H26">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="104" priority="58">
       <formula>LEN($B26)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:H17">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="103" priority="42">
       <formula>$E16="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="102" priority="43">
       <formula>$E16="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="101" priority="50">
       <formula>$F16=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="100" priority="52">
       <formula>$F16=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="99" priority="54">
       <formula>$F16=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="98" priority="49">
       <formula>$F17=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="97" priority="51">
       <formula>$F17=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="96" priority="53">
       <formula>$F17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10599,7 +10880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10613,57 +10894,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G17">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="95" priority="46">
       <formula>L16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="94" priority="45">
       <formula>$P16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H17">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="93" priority="55">
       <formula>LEN($B17)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:H16">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="92" priority="44">
       <formula>LEN($B16)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:H20">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="91" priority="30">
       <formula>$E20="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="90" priority="31">
       <formula>$E20="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="89" priority="37">
       <formula>$F20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="88" priority="39">
       <formula>$F20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="87" priority="41">
       <formula>$F20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="86" priority="36">
       <formula>$F20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="85" priority="38">
       <formula>$F20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="84" priority="40">
       <formula>$F20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="$Y$8"/>
@@ -10677,21 +10958,189 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:G20">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="83" priority="34">
       <formula>L20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="82" priority="33">
       <formula>$P20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:H20">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="81" priority="32">
       <formula>LEN($B20)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <conditionalFormatting sqref="F25 F29 F31 F33">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>$F25=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>$F25=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>$F25=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29 G25 G31 G33">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D845735-EA44-41BB-8690-103C8DF5FF65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28 G26 G30 G32 G34">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFD4DEE8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69A77B47-3DB8-4A67-BFCE-CE9E31A4F6C0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H26 C28:H28 C30:H30 C32:H32 C34:H34">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>LEN($B26)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H25 C29:H29 C31:H31 C33:H33">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>LEN($B25)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>$F23=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$F23=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>$F23=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$F24=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>$F24=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>$F24=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28CD2654-4A22-42E4-9083-63AD74A22588}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFD4DEE8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB79F80E-0A3F-4DC6-94D6-B2B85FDCF602}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:H24">
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>LEN($B24)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>LEN($B23)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H27">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$E27="Optionnelle"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$E27="Essentielle"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$F27=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$F27=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$F27=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$F27=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>$F27=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>$F27=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$Y$8"/>
+        <color rgb="FFE9EEF3"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{30A47E03-4360-4986-8863-EB251EF687B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:G27">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>L27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$P27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H27">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>LEN($B27)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations xWindow="373" yWindow="961" count="7">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Nom de tâche trop long" error="Le nom de votre tâche doit être court. _x000a_Un maximum de 72 caractères est mis à votre disposition._x000a_Pour plus de détail, veuillez faire l'ajout de commentaires." promptTitle="Nom de la tâche" prompt="_x000a_Veuillez saisir le nom de la tâche._x000a__x000a_Lorsque pertinent, n'oubliez pas d'ajouter une description de votre tâche sous forme de commentaire." sqref="C8:C42">
       <formula1>0</formula1>
       <formula2>72</formula2>
@@ -10763,7 +11212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14 G12 G18</xm:sqref>
+          <xm:sqref>G12 G14 G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AE595B17-0E68-43B3-8B2F-88907ED2AA84}">
@@ -10870,6 +11319,81 @@
           </x14:cfRule>
           <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D845735-EA44-41BB-8690-103C8DF5FF65}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G29 G25 G31 G33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69A77B47-3DB8-4A67-BFCE-CE9E31A4F6C0}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28 G26 G30 G32 G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28CD2654-4A22-42E4-9083-63AD74A22588}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB79F80E-0A3F-4DC6-94D6-B2B85FDCF602}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{30A47E03-4360-4986-8863-EB251EF687B9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>$Y$8</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -10881,7 +11405,7 @@
   <dimension ref="B1:W56"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10938,7 +11462,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="64" t="str">
         <f>IF(K44=0,CONCATENATE("Ce sprint totalise ", U14, " de travail réalisé. ",U15),CONCATENATE("Attention, il reste ",K45," à remplir!"))</f>
-        <v>Attention, il reste 16 champs à remplir!</v>
+        <v>Attention, il reste 2 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10976,16 +11500,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="109">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F8" s="110">
+        <v>1</v>
+      </c>
       <c r="G8" s="111"/>
       <c r="K8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(E8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(F8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="b">
         <f>AND($D8="Sprint 1",NOT(ISBLANK($F8)),$F8&lt;100%,ISBLANK($G8))</f>
@@ -10996,15 +11524,15 @@
       </c>
       <c r="Q8" s="61">
         <f t="array" ref="Q8">SUM(($D$8:$D$42=$P8)*$E$8:$E$42)</f>
-        <v>0</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="R8" s="62">
         <f>Q8*24*60</f>
-        <v>0</v>
+        <v>959.99999999999943</v>
       </c>
       <c r="T8" s="9">
         <f>SUM(E8:E42)</f>
-        <v>0</v>
+        <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
@@ -11020,16 +11548,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="112">
+        <v>0.125</v>
+      </c>
+      <c r="F9" s="113">
+        <v>1</v>
+      </c>
       <c r="G9" s="114"/>
       <c r="K9" s="3" t="b">
         <f t="shared" ref="K9:K42" si="0">AND($D9="Sprint 1",ISBLANK(E9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="b">
         <f t="shared" ref="L9:L42" si="1">AND($D9="Sprint 1",ISBLANK(F9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
         <f t="shared" ref="M9:M42" si="2">AND($D9="Sprint 1",NOT(ISBLANK($F9)),$F9&lt;100%,ISBLANK($G9))</f>
@@ -11048,7 +11580,7 @@
       </c>
       <c r="T9" s="10">
         <f>T8</f>
-        <v>0</v>
+        <v>0.6666666666666663</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
@@ -11092,7 +11624,7 @@
       </c>
       <c r="T10" s="63">
         <f>DAY(T8)*24+HOUR(T8)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
@@ -11108,16 +11640,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="E11" s="112">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F11" s="113">
+        <v>1</v>
+      </c>
       <c r="G11" s="114"/>
       <c r="K11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11144,16 +11680,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
         <v>sprint 1</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="116"/>
+      <c r="E12" s="118">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F12" s="116">
+        <v>1</v>
+      </c>
       <c r="G12" s="117"/>
       <c r="K12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11165,11 +11705,11 @@
       </c>
       <c r="T12" s="63">
         <f>T10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>T12 &amp; " " &amp; S12 &amp; IF(T12 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>16 heures</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
@@ -11185,16 +11725,22 @@
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
+      <c r="E13" s="112">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F13" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>99</v>
+      </c>
       <c r="K13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11226,16 +11772,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="116"/>
+      <c r="E14" s="118">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F14" s="116">
+        <v>1</v>
+      </c>
       <c r="G14" s="117"/>
       <c r="K14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11244,11 +11794,11 @@
       <c r="P14" s="8"/>
       <c r="U14" s="4" t="str">
         <f>IF(T12&gt;0,IF(T13&gt;0,U12&amp;" et "&amp;U13,U12),U13)</f>
-        <v>0 minute</v>
+        <v>16 heures</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>T12&amp;"h"&amp;TEXT(T13,"00")</f>
-        <v>0h00</v>
+        <v>16h00</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
@@ -11264,16 +11814,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
+      <c r="E15" s="112">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F15" s="113">
+        <v>1</v>
+      </c>
       <c r="G15" s="114"/>
       <c r="K15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11282,11 +11836,11 @@
       <c r="P15" s="8"/>
       <c r="T15" s="4">
         <f t="array" ref="T15">SUM(($D$8:$D$42="Sprint 1")*($F$8:$F$42&lt;1))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U15" s="4" t="str">
         <f>IF(T15=0,"",IF(T15=1,"Une tâche est en retard!",CONCATENATE(T15," tâches sont en retard!")))</f>
-        <v>8 tâches sont en retard!</v>
+        <v>2 tâches sont en retard!</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
@@ -11296,7 +11850,7 @@
       </c>
       <c r="C16" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v>Créer la solution de base avec visual studio</v>
+        <v>Créer la solution de base avec visual studio (&amp; github)</v>
       </c>
       <c r="D16" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
@@ -11386,7 +11940,7 @@
       </c>
       <c r="C19" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v xml:space="preserve">Fabrication du fond </v>
+        <v>Fabrication du fond de l'image</v>
       </c>
       <c r="D19" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
@@ -11446,7 +12000,7 @@
       </c>
       <c r="C21" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v>Rediger les classes des cameras</v>
+        <v>Coder les classes des cameras</v>
       </c>
       <c r="D21" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
@@ -11476,7 +12030,7 @@
       </c>
       <c r="C22" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Afficher une image prise de la camera sur le GUI</v>
+        <v>Calculer la distance entre la camera et le fond pour le cadre</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
@@ -11506,7 +12060,7 @@
       </c>
       <c r="C23" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v>Coder les classes dont les classes d'algorightme heriterons</v>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D23" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
@@ -11536,11 +12090,11 @@
       </c>
       <c r="C24" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D24" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E24" s="118"/>
       <c r="F24" s="116"/>
@@ -11566,11 +12120,11 @@
       </c>
       <c r="C25" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v xml:space="preserve">Coder algorithme de segmentation </v>
+        <v xml:space="preserve">Coder algorithme de filtre par rang </v>
       </c>
       <c r="D25" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="113"/>
@@ -11596,11 +12150,11 @@
       </c>
       <c r="C26" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v>Coder algorithme Séparation des images</v>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D26" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="116"/>
@@ -11626,11 +12180,11 @@
       </c>
       <c r="C27" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v xml:space="preserve">Coder algorithme de normalisation </v>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D27" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E27" s="112"/>
       <c r="F27" s="113"/>
@@ -11656,11 +12210,11 @@
       </c>
       <c r="C28" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v>Coder algorithme de remplissage d'intérieur</v>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D28" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E28" s="115"/>
       <c r="F28" s="116"/>
@@ -11686,11 +12240,11 @@
       </c>
       <c r="C29" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v>Coder algorithme de calcule de forme</v>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D29" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E29" s="112"/>
       <c r="F29" s="113"/>
@@ -11716,11 +12270,11 @@
       </c>
       <c r="C30" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v>Coder algorithme de convolution</v>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D30" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="118"/>
       <c r="F30" s="116"/>
@@ -11746,11 +12300,11 @@
       </c>
       <c r="C31" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v>Coder classe pour les differents nœuds de convolution</v>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D31" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E31" s="112"/>
       <c r="F31" s="113"/>
@@ -11770,17 +12324,17 @@
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="str">
+      <c r="B32" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C32" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D32" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E32" s="118"/>
       <c r="F32" s="116"/>
@@ -11800,17 +12354,17 @@
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="str">
+      <c r="B33" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C33" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>Coder Classe pour connection/ajout/suppression a la base de donnée</v>
       </c>
       <c r="D33" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E33" s="112"/>
       <c r="F33" s="113"/>
@@ -11830,17 +12384,17 @@
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="53" t="str">
+      <c r="B34" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C34" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>Coder Classe comparaison des resultats</v>
       </c>
       <c r="D34" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="115"/>
       <c r="F34" s="116"/>
@@ -11860,17 +12414,17 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="str">
+      <c r="B35" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C35" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>Afficher constament sur le GUI l'image de la camera</v>
       </c>
       <c r="D35" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="112"/>
       <c r="F35" s="113"/>
@@ -12102,11 +12656,11 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K43" s="3">
         <f>COUNTIF(K8:K42,TRUE)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ref="L43:M43" si="4">COUNTIF(L8:L42,TRUE)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="4"/>
@@ -12117,14 +12671,14 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K44" s="3">
         <f>SUM(K43:M43)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K45" s="3" t="str">
         <f>IF(K44=0, "aucun champ", IF(K44=1, "1 champ", K44 &amp; " champs"))</f>
-        <v>16 champs</v>
+        <v>2 champs</v>
       </c>
       <c r="P45" s="8"/>
     </row>
@@ -12168,97 +12722,97 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:D42">
-    <cfRule type="expression" dxfId="122" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>$F8=100%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="11">
+    <cfRule type="expression" dxfId="79" priority="11">
       <formula>$D8&lt;&gt;"Sprint 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:G20 E22:G22 E24:G24 E26:G26 E28:G28 E30:G30 E32:G32 E34:G34 E36:G36 E38:G38 E40:G40 E42:G42">
-    <cfRule type="expression" dxfId="120" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>AND($D20&lt;&gt;"Sprint 1",$F20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="24">
+    <cfRule type="expression" dxfId="77" priority="24">
       <formula>AND($D20="Sprint 1",$F20&lt;1,NOT(ISBLANK($F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:G19 E21:G21 E23:G23 E25:G25 E27:G27 E29:G29 E31:G31 E33:G33 E35:G35 E37:G37 E39:G39 E41:G41">
-    <cfRule type="expression" dxfId="118" priority="19">
+    <cfRule type="expression" dxfId="76" priority="19">
       <formula>AND($D19&lt;&gt;"Sprint 1",$F19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="21">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>AND($D19="Sprint 1",$F19&lt;1,NOT(ISBLANK($F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G42">
-    <cfRule type="expression" dxfId="116" priority="16">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>$M19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E42">
-    <cfRule type="expression" dxfId="115" priority="14">
+    <cfRule type="expression" dxfId="73" priority="14">
       <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F42">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="72" priority="13">
       <formula>$L19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="113" priority="12">
+    <cfRule type="expression" dxfId="71" priority="12">
       <formula>$K$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D8 B10:D10 B12:D12 B14:D14 B16:D16 B18:D18 B20:G20 B22:G22 B24:G24 B26:G26 B28:G28 B30:G30 B32:G32 B34:G34 B36:G36 B38:G38 B40:G40 B42:G42">
-    <cfRule type="expression" dxfId="112" priority="25">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D9 B11:D11 B13:D13 B15:D15 B17:D17 B19:G19 B21:G21 B23:G23 B25:G25 B27:G27 B29:G29 B31:G31 B33:G33 B35:G35 B37:G37 B39:G39 B41:G41">
-    <cfRule type="expression" dxfId="111" priority="20">
+    <cfRule type="expression" dxfId="69" priority="20">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="110" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>AND($D8&lt;&gt;"Sprint 1",$F8&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>AND($D8="Sprint 1",$F8&lt;1,NOT(ISBLANK($F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="108" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>AND($D9&lt;&gt;"Sprint 1",$F9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>AND($D9="Sprint 1",$F9&lt;1,NOT(ISBLANK($F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G18">
-    <cfRule type="expression" dxfId="106" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>$M8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>$K8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F18">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>$L8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="103" priority="9">
+    <cfRule type="expression" dxfId="61" priority="9">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="102" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12352,7 +12906,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 32 champs à remplir!</v>
+        <v>Attention, il reste 34 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -12409,24 +12963,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="72">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E8),"",'Sprint 1 - Bilan'!E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="71" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F9" s="71">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F8),"",'Sprint 1 - Bilan'!F8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND($D9&lt;&gt;"Sprint 3",NOT(ISBLANK($H9)),$H9&lt;100%,ISBLANK($I9))</f>
@@ -12434,7 +12988,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(OR(LEN($D9)=0,$D9="Sprint 3"),TRUE,IF(COUNTA($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -12465,24 +13019,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="73" t="str">
+      <c r="E10" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E9),"",'Sprint 1 - Bilan'!E9)</f>
-        <v/>
-      </c>
-      <c r="F10" s="77" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F10" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F9),"",'Sprint 1 - Bilan'!F9)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT(P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND($D10&lt;&gt;"Sprint 3",NOT(ISBLANK($H10)),$H10&lt;100%,ISBLANK($I10))</f>
@@ -12490,7 +13044,7 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(OR(LEN($D10)=0,$D10="Sprint 3"),TRUE,IF(COUNTA($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
@@ -12577,24 +13131,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E12" s="73" t="str">
+      <c r="E12" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E11),"",'Sprint 1 - Bilan'!E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F12" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F11),"",'Sprint 1 - Bilan'!F11)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12602,7 +13156,7 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -12624,24 +13178,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
         <v>sprint 1</v>
       </c>
-      <c r="E13" s="75" t="str">
+      <c r="E13" s="75">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E12),"",'Sprint 1 - Bilan'!E12)</f>
-        <v/>
-      </c>
-      <c r="F13" s="79" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F13" s="79">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F12),"",'Sprint 1 - Bilan'!F12)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" s="118"/>
       <c r="H13" s="116"/>
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12649,7 +13203,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -12677,13 +13231,13 @@
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E14" s="73" t="str">
+      <c r="E14" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E13),"",'Sprint 1 - Bilan'!E13)</f>
-        <v/>
-      </c>
-      <c r="F14" s="77" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F14" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F13),"",'Sprint 1 - Bilan'!F13)</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
@@ -12730,24 +13284,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E15" s="75" t="str">
+      <c r="E15" s="75">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E14),"",'Sprint 1 - Bilan'!E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="79" t="str">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15" s="79">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F14),"",'Sprint 1 - Bilan'!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G15" s="118"/>
       <c r="H15" s="116"/>
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12755,7 +13309,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -12780,24 +13334,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E16" s="73" t="str">
+      <c r="E16" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E15),"",'Sprint 1 - Bilan'!E15)</f>
-        <v/>
-      </c>
-      <c r="F16" s="77" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F16" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F15),"",'Sprint 1 - Bilan'!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="113"/>
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12805,16 +13359,16 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>16 tâches sont en retard!</v>
+        <v>17 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -12824,7 +13378,7 @@
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v>Créer la solution de base avec visual studio</v>
+        <v>Créer la solution de base avec visual studio (&amp; github)</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
@@ -12951,7 +13505,7 @@
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v xml:space="preserve">Fabrication du fond </v>
+        <v>Fabrication du fond de l'image</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
@@ -13035,7 +13589,7 @@
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v>Rediger les classes des cameras</v>
+        <v>Coder les classes des cameras</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
@@ -13077,7 +13631,7 @@
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Afficher une image prise de la camera sur le GUI</v>
+        <v>Calculer la distance entre la camera et le fond pour le cadre</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
@@ -13119,7 +13673,7 @@
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v>Coder les classes dont les classes d'algorightme heriterons</v>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
@@ -13161,11 +13715,11 @@
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E24),"",'Sprint 1 - Bilan'!E24)</f>
@@ -13180,11 +13734,11 @@
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13192,7 +13746,7 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -13203,11 +13757,11 @@
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v xml:space="preserve">Coder algorithme de segmentation </v>
+        <v xml:space="preserve">Coder algorithme de filtre par rang </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E25),"",'Sprint 1 - Bilan'!E25)</f>
@@ -13222,11 +13776,11 @@
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13234,7 +13788,7 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8"/>
     </row>
@@ -13245,11 +13799,11 @@
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v>Coder algorithme Séparation des images</v>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E26),"",'Sprint 1 - Bilan'!E26)</f>
@@ -13264,11 +13818,11 @@
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13276,7 +13830,7 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -13287,11 +13841,11 @@
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v xml:space="preserve">Coder algorithme de normalisation </v>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E28" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E27),"",'Sprint 1 - Bilan'!E27)</f>
@@ -13306,11 +13860,11 @@
       <c r="I28" s="114"/>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13318,7 +13872,7 @@
       </c>
       <c r="P28" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="8"/>
     </row>
@@ -13329,11 +13883,11 @@
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v>Coder algorithme de remplissage d'intérieur</v>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E29" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E28),"",'Sprint 1 - Bilan'!E28)</f>
@@ -13348,11 +13902,11 @@
       <c r="I29" s="117"/>
       <c r="M29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13360,7 +13914,7 @@
       </c>
       <c r="P29" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="8"/>
     </row>
@@ -13371,11 +13925,11 @@
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v>Coder algorithme de calcule de forme</v>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E29),"",'Sprint 1 - Bilan'!E29)</f>
@@ -13413,11 +13967,11 @@
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v>Coder algorithme de convolution</v>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E30),"",'Sprint 1 - Bilan'!E30)</f>
@@ -13455,11 +14009,11 @@
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v>Coder classe pour les differents nœuds de convolution</v>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E32" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E31),"",'Sprint 1 - Bilan'!E31)</f>
@@ -13474,11 +14028,11 @@
       <c r="I32" s="114"/>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13486,22 +14040,22 @@
       </c>
       <c r="P32" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C33" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D33" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E32),"",'Sprint 1 - Bilan'!E32)</f>
@@ -13516,11 +14070,11 @@
       <c r="I33" s="117"/>
       <c r="M33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13528,22 +14082,22 @@
       </c>
       <c r="P33" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="str">
+      <c r="B34" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>Coder Classe pour connection/ajout/suppression a la base de donnée</v>
       </c>
       <c r="D34" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E33),"",'Sprint 1 - Bilan'!E33)</f>
@@ -13575,17 +14129,17 @@
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="53" t="str">
+      <c r="B35" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C35" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>Coder Classe comparaison des resultats</v>
       </c>
       <c r="D35" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E34),"",'Sprint 1 - Bilan'!E34)</f>
@@ -13617,17 +14171,17 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="str">
+      <c r="B36" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C36" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>Afficher constament sur le GUI l'image de la camera</v>
       </c>
       <c r="D36" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E35),"",'Sprint 1 - Bilan'!E35)</f>
@@ -13955,11 +14509,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -13967,21 +14521,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>32 champs</v>
+        <v>34 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14032,97 +14586,97 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="101" priority="10">
+    <cfRule type="expression" dxfId="59" priority="10">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="58" priority="11">
       <formula>OR($D9="Sprint 3",AND($D9="Sprint 1",$F9=100%))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="99" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>AND($D21="Sprint 3",$H21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>AND($D21&lt;&gt;"Sprint 3",$H21&lt;1,NOT(ISBLANK($H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="97" priority="16">
+    <cfRule type="expression" dxfId="55" priority="16">
       <formula>AND($D20="Sprint 3",$H20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="17">
+    <cfRule type="expression" dxfId="54" priority="17">
       <formula>AND($D20&lt;&gt;"Sprint 3",$H20&lt;1,NOT(ISBLANK($H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I43">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="53" priority="15">
       <formula>$O20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G43">
-    <cfRule type="expression" dxfId="94" priority="14">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$M20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H43">
-    <cfRule type="expression" dxfId="93" priority="13">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$N20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="92" priority="12">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F9 B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="91" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:F10 B12:F12 B14:F14 B16:F16 B18:F18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="90" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="89" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>AND($D9="Sprint 3",$H9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>AND($D9&lt;&gt;"Sprint 3",$H9&lt;1,NOT(ISBLANK($H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND($D10="Sprint 3",$H10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="44" priority="5">
       <formula>AND($D10&lt;&gt;"Sprint 3",$H10&lt;1,NOT(ISBLANK($H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I19">
-    <cfRule type="expression" dxfId="85" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G19">
-    <cfRule type="expression" dxfId="84" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H19">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="40" priority="9">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="81" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14225,7 +14779,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 48 champs à remplir!</v>
+        <v>Attention, il reste 44 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14282,24 +14836,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="72">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9))</f>
-        <v/>
-      </c>
-      <c r="F9" s="71" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F9" s="71">
         <f>IF(LEN('Sprint 2 - Bilan'!$H9)&lt;&gt;0,'Sprint 2 - Bilan'!$H9,IF(LEN('Sprint 2 - Bilan'!$F9)=0,"",'Sprint 2 - Bilan'!$F9))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND(LEN($H9)&gt;0,$H9&lt;100%,LEN($I9)=0)</f>
@@ -14307,7 +14861,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(LEN($C9)=0,TRUE,IF(LEN($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -14338,24 +14892,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="73" t="str">
+      <c r="E10" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10))</f>
-        <v/>
-      </c>
-      <c r="F10" s="77" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F10" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H10)&lt;&gt;0,'Sprint 2 - Bilan'!$H10,IF(LEN('Sprint 2 - Bilan'!$F10)=0,"",'Sprint 2 - Bilan'!$F10))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT($P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND(LEN($H10)&gt;0,$H10&lt;100%,LEN($I10)=0)</f>
@@ -14363,7 +14917,7 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(LEN($C10)=0,TRUE,IF(LEN($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
@@ -14450,24 +15004,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E12" s="73" t="str">
+      <c r="E12" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12))</f>
-        <v/>
-      </c>
-      <c r="F12" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F12" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H12)&lt;&gt;0,'Sprint 2 - Bilan'!$H12,IF(LEN('Sprint 2 - Bilan'!$F12)=0,"",'Sprint 2 - Bilan'!$F12))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14475,7 +15029,7 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -14497,24 +15051,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
         <v>sprint 1</v>
       </c>
-      <c r="E13" s="75" t="str">
+      <c r="E13" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
-        <v/>
-      </c>
-      <c r="F13" s="79" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F13" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H13)&lt;&gt;0,'Sprint 2 - Bilan'!$H13,IF(LEN('Sprint 2 - Bilan'!$F13)=0,"",'Sprint 2 - Bilan'!$F13))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" s="118"/>
       <c r="H13" s="116"/>
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14522,7 +15076,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -14550,13 +15104,13 @@
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E14" s="73" t="str">
+      <c r="E14" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
-        <v/>
-      </c>
-      <c r="F14" s="77" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F14" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H14)&lt;&gt;0,'Sprint 2 - Bilan'!$H14,IF(LEN('Sprint 2 - Bilan'!$F14)=0,"",'Sprint 2 - Bilan'!$F14))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
@@ -14603,24 +15157,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E15" s="75" t="str">
+      <c r="E15" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
-        <v/>
-      </c>
-      <c r="F15" s="79" t="str">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H15)&lt;&gt;0,'Sprint 2 - Bilan'!$H15,IF(LEN('Sprint 2 - Bilan'!$F15)=0,"",'Sprint 2 - Bilan'!$F15))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G15" s="118"/>
       <c r="H15" s="116"/>
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14628,7 +15182,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -14653,24 +15207,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E16" s="73" t="str">
+      <c r="E16" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
-        <v/>
-      </c>
-      <c r="F16" s="77" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F16" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H16)&lt;&gt;0,'Sprint 2 - Bilan'!$H16,IF(LEN('Sprint 2 - Bilan'!$F16)=0,"",'Sprint 2 - Bilan'!$F16))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="113"/>
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14678,16 +15232,16 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>24 tâches n'ont pas été terminé!</v>
+        <v>22 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -14697,7 +15251,7 @@
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v>Créer la solution de base avec visual studio</v>
+        <v>Créer la solution de base avec visual studio (&amp; github)</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
@@ -14823,7 +15377,7 @@
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v xml:space="preserve">Fabrication du fond </v>
+        <v>Fabrication du fond de l'image</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
@@ -14907,7 +15461,7 @@
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v>Rediger les classes des cameras</v>
+        <v>Coder les classes des cameras</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
@@ -14949,7 +15503,7 @@
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Afficher une image prise de la camera sur le GUI</v>
+        <v>Calculer la distance entre la camera et le fond pour le cadre</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
@@ -14991,7 +15545,7 @@
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v>Coder les classes dont les classes d'algorightme heriterons</v>
+        <v>Afficher une image prise de la camera sur le GUI</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
@@ -15033,11 +15587,11 @@
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v xml:space="preserve">Coder algorithme de filtrage par rang </v>
+        <v>Coder les classes dont les classes d'algorightme heriterons</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25))</f>
@@ -15075,11 +15629,11 @@
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v xml:space="preserve">Coder algorithme de segmentation </v>
+        <v xml:space="preserve">Coder algorithme de filtre par rang </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26))</f>
@@ -15117,11 +15671,11 @@
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v>Coder algorithme Séparation des images</v>
+        <v xml:space="preserve">Coder algorithme de segmentation </v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27))</f>
@@ -15159,11 +15713,11 @@
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v xml:space="preserve">Coder algorithme de normalisation </v>
+        <v>Coder algorithme Séparation des images</v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E28" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28))</f>
@@ -15201,11 +15755,11 @@
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v>Coder algorithme de remplissage d'intérieur</v>
+        <v xml:space="preserve">Coder algorithme de normalisation </v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E29" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29))</f>
@@ -15243,11 +15797,11 @@
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v>Coder algorithme de calcule de forme</v>
+        <v>Coder algorithme de remplissage d'intérieur</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30))</f>
@@ -15285,11 +15839,11 @@
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v>Coder algorithme de convolution</v>
+        <v>Coder algorithme de calcule de forme</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E31)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G31)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E31)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G31))</f>
@@ -15327,11 +15881,11 @@
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v>Coder classe pour les differents nœuds de convolution</v>
+        <v>Coder algorithme de convolution</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E32" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32))</f>
@@ -15363,17 +15917,17 @@
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C33" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>Coder classe pour les differents nœuds de convolution</v>
       </c>
       <c r="D33" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33))</f>
@@ -15388,11 +15942,11 @@
       <c r="I33" s="117"/>
       <c r="M33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15400,22 +15954,22 @@
       </c>
       <c r="P33" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="str">
+      <c r="B34" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>Coder Classe pour connection/ajout/suppression a la base de donnée</v>
       </c>
       <c r="D34" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34))</f>
@@ -15430,11 +15984,11 @@
       <c r="I34" s="114"/>
       <c r="M34" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15442,22 +15996,22 @@
       </c>
       <c r="P34" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="53" t="str">
+      <c r="B35" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C35" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>Coder Classe comparaison des resultats</v>
       </c>
       <c r="D35" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E35)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G35)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E35)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G35))</f>
@@ -15472,11 +16026,11 @@
       <c r="I35" s="117"/>
       <c r="M35" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15484,22 +16038,22 @@
       </c>
       <c r="P35" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="str">
+      <c r="B36" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C36" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>Afficher constament sur le GUI l'image de la camera</v>
       </c>
       <c r="D36" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E36)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G36)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E36)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G36))</f>
@@ -15514,11 +16068,11 @@
       <c r="I36" s="114"/>
       <c r="M36" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="3" t="b">
         <f t="shared" si="2"/>
@@ -15526,7 +16080,7 @@
       </c>
       <c r="P36" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -15827,11 +16381,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -15839,21 +16393,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>48 champs</v>
+        <v>44 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -15904,50 +16458,50 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND($D9&lt;&gt;"Sprint 3",$F9=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19 G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="78" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>IF(ISBLANK($H9),IF(ISBLANK($F9),TRUE,$F9&lt;100%),$H9&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18 G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>IF(ISBLANK($H10),IF(ISBLANK($F10),TRUE,$F10&lt;100%),$H10&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I43">
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G43">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H43">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:I9 B11:I11 B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="72" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10 B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="71" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16072,15 +16626,15 @@
       </c>
       <c r="D8" s="96">
         <f>M8</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="97">
         <f>N8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="101">
         <f>O8</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -16090,15 +16644,15 @@
       </c>
       <c r="M8" s="1">
         <f>'Sprint 1 - Planification'!AJ18</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -16111,66 +16665,66 @@
       </c>
       <c r="C9" s="98" t="str">
         <f t="shared" ref="C9:F10" si="0">DAY(L9)*24+HOUR(L9)&amp;"h"&amp;TEXT(MINUTE(L9),"00")</f>
-        <v>23h00</v>
+        <v>24h30</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>15h30</v>
+        <v>40h30</v>
       </c>
       <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>24h00</v>
       </c>
       <c r="F9" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>38h30</v>
+        <v>89h00</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="L9" s="1">
         <f>'Sprint 1 - Planification'!AD17</f>
-        <v>0.95833333333333348</v>
+        <v>1.0208333333333335</v>
       </c>
       <c r="M9" s="1">
         <f>'Sprint 1 - Planification'!AD18</f>
-        <v>0.64583333333333393</v>
+        <v>1.6875000000000013</v>
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
-        <v>1.6041666666666674</v>
+        <v>3.7083333333333348</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9:S10" si="1">DAY(L9)*24+HOUR(L9)+MINUTE(L9)/60</f>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>40.5</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Y9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -16179,7 +16733,7 @@
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>16h00</v>
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
@@ -16191,13 +16745,13 @@
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>16h00</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="1">
         <f>'Sprint 1 - Bilan'!T8</f>
-        <v>0</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
@@ -16209,14 +16763,14 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0</v>
+        <v>0.6666666666666663</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
@@ -16231,14 +16785,14 @@
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Y10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,2)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:25" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16247,37 +16801,37 @@
       </c>
       <c r="C11" s="104">
         <f>L11</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1">
         <f>'Sprint 1 - Bilan'!T15</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -16288,7 +16842,7 @@
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,3)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -16410,7 +16964,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZTHIqTmr8cTliRMGAcUcmM0mjbf6CIJ0mHH1g8KtGLF4lRA/UYuFPwpT4A16q2cQqIx/6PesESjQGKIAV9ov5g==" saltValue="9FKXXuq3MsinQZgjNrQSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="70" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16733,22 +17287,22 @@
     <mergeCell ref="C35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="27" priority="69">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/B65_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Afficher constament sur le GUI l'image de la camera</t>
+  </si>
+  <si>
+    <t>include machine learning pour les signes</t>
   </si>
 </sst>
 </file>
@@ -1527,406 +1530,6 @@
   </cellStyles>
   <dxfs count="152">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFD4DEE8"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDEE0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75C400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFECFFD1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0B700"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFFCC9"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF47400"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFFE7D1"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFE9EEF3"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2576,6 +2179,406 @@
       <font>
         <strike/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFD4DEE8"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDEE0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75C400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFECFFD1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0B700"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFFCC9"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF47400"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFFE7D1"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFE9EEF3"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3894,7 +3897,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +3974,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,7 +4320,7 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4816,7 +4819,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,7 +4936,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5275,7 +5278,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,7 +5398,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8183,7 +8186,7 @@
   <dimension ref="B1:AJ90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8248,7 +8251,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60" t="str">
         <f>IF(L44=0,CONCATENATE(AE12, " totalisant ", AE15, " de travail estimé."),CONCATENATE("Attention, il reste " &amp; L45 &amp; " à remplir."))</f>
-        <v>28 tâches ont été définies totalisant 89 heures de travail estimé.</v>
+        <v>29 tâches ont été définies totalisant 101 heures et 15 minutes de travail estimé.</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8331,7 +8334,7 @@
       </c>
       <c r="U8" s="3">
         <f>MAX(B8:B42)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>18</v>
@@ -8344,7 +8347,7 @@
       </c>
       <c r="Y8" s="8">
         <f>MAX(G8:G42)</f>
-        <v>0.33333333333333298</v>
+        <v>0.51041666666667096</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>1</v>
@@ -8357,11 +8360,11 @@
       </c>
       <c r="AC8" s="4">
         <f>COUNTA(C8:C43)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(G8:G43)</f>
-        <v>3.7083333333333348</v>
+        <v>4.2187500000000053</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
@@ -8436,7 +8439,7 @@
       </c>
       <c r="AD9" s="10">
         <f>AD8</f>
-        <v>3.7083333333333348</v>
+        <v>4.2187500000000053</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
@@ -8508,7 +8511,7 @@
       </c>
       <c r="AD10" s="63">
         <f>DAY(AD8)*24+HOUR(AD8)</f>
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
@@ -8567,7 +8570,7 @@
       </c>
       <c r="AD11" s="4">
         <f>MINUTE(AD8)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
@@ -8633,11 +8636,11 @@
       </c>
       <c r="AD12" s="4">
         <f>AC8</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE12" s="4" t="str">
         <f>AD12 &amp; " " &amp; AC12 &amp; IF(AD12 &gt; 1, "s ont été définies", " a été définie")</f>
-        <v>28 tâches ont été définies</v>
+        <v>29 tâches ont été définies</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
@@ -8703,11 +8706,11 @@
       </c>
       <c r="AD13" s="4">
         <f>AD10</f>
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="4" t="str">
         <f>AD13 &amp; " " &amp; AC13 &amp; IF(AD13 &gt; 1, "s", "")</f>
-        <v>89 heures</v>
+        <v>101 heures</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
@@ -8773,11 +8776,11 @@
       </c>
       <c r="AD14" s="4">
         <f>AD11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE14" s="4" t="str">
         <f>AD14 &amp; " " &amp; AC14 &amp; IF(AD14 &gt; 1, "s", "")</f>
-        <v>0 minute</v>
+        <v>15 minutes</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
@@ -8834,7 +8837,7 @@
       </c>
       <c r="AE15" s="4" t="str">
         <f>IF(AD13&gt;0,IF(AD14&gt;0,AE13&amp;" et "&amp;AE14,AE13),AE14)</f>
-        <v>89 heures</v>
+        <v>101 heures et 15 minutes</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
@@ -9125,27 +9128,27 @@
       </c>
       <c r="AD19" s="4">
         <f t="array" ref="AD19">SUM(($H$8:$H$42=$AC19)*$G$8:$G$42)</f>
-        <v>1</v>
+        <v>1.510416666666671</v>
       </c>
       <c r="AE19" s="4">
         <f>AD19 * 24*60</f>
-        <v>1440</v>
+        <v>2175.0000000000059</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>24h00</v>
+        <v>36h15</v>
       </c>
       <c r="AJ19" s="4">
         <f>COUNTIF($H$8:$H$42,AC19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
@@ -9204,7 +9207,7 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="45">
-        <f>IF(LEN(C21)&lt;&gt;0,IF(OR(LEN(B20)=0,B20="^"),"^",B20+1),"")</f>
+        <f t="shared" ref="B21:B34" si="10">IF(LEN(C21)&lt;&gt;0,IF(OR(LEN(B20)=0,B20="^"),"^",B20+1),"")</f>
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9226,23 +9229,23 @@
         <v>2</v>
       </c>
       <c r="L21" s="3" t="b">
-        <f t="shared" ref="L21:P21" si="10">AND(NOT(ISBLANK($C21)),LEN(D21)=0)</f>
+        <f t="shared" ref="L21:P21" si="11">AND(NOT(ISBLANK($C21)),LEN(D21)=0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -9256,28 +9259,28 @@
       </c>
       <c r="AD21" s="4">
         <f>SUM(AD17:AD19)</f>
-        <v>3.7083333333333348</v>
+        <v>4.2187500000000053</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" ref="AE21" si="11">AD21 * 24*60</f>
-        <v>5340.0000000000018</v>
+        <f t="shared" ref="AE21" si="12">AD21 * 24*60</f>
+        <v>6075.0000000000073</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" ref="AF21" si="12">DAY(AD21)*24+HOUR(AD21)</f>
-        <v>89</v>
+        <f t="shared" ref="AF21" si="13">DAY(AD21)*24+HOUR(AD21)</f>
+        <v>101</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21" si="13">MINUTE(AD21)</f>
-        <v>0</v>
+        <f t="shared" ref="AG21" si="14">MINUTE(AD21)</f>
+        <v>15</v>
       </c>
       <c r="AH21" s="4" t="str">
-        <f t="shared" ref="AH21" si="14">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
-        <v>89h00</v>
+        <f t="shared" ref="AH21" si="15">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
+        <v>101h15</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B22" s="44">
-        <f>IF(LEN(C22)&lt;&gt;0,IF(OR(LEN(B21)=0,B21="^"),"^",B21+1),"")</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -9299,23 +9302,23 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C22)),LEN(D22)=0)</f>
+        <f t="shared" ref="L22:L34" si="16">AND(NOT(ISBLANK($C22)),LEN(D22)=0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C22)),LEN(E22)=0)</f>
+        <f t="shared" ref="M22:M34" si="17">AND(NOT(ISBLANK($C22)),LEN(E22)=0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C22)),LEN(F22)=0)</f>
+        <f t="shared" ref="N22:N34" si="18">AND(NOT(ISBLANK($C22)),LEN(F22)=0)</f>
         <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C22)),LEN(G22)=0)</f>
+        <f t="shared" ref="O22:O34" si="19">AND(NOT(ISBLANK($C22)),LEN(G22)=0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C22)),LEN(H22)=0)</f>
+        <f t="shared" ref="P22:P34" si="20">AND(NOT(ISBLANK($C22)),LEN(H22)=0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="3">
@@ -9330,7 +9333,7 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B23" s="45">
-        <f>IF(LEN(C23)&lt;&gt;0,IF(OR(LEN(B22)=0,B22="^"),"^",B22+1),"")</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -9352,23 +9355,23 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C23)),LEN(D23)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C23)),LEN(E23)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C23)),LEN(F23)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C23)),LEN(G23)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P23" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C23)),LEN(H23)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T23" s="3">
@@ -9383,7 +9386,7 @@
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24" s="44">
-        <f>IF(LEN(C24)&lt;&gt;0,IF(OR(LEN(B23)=0,B23="^"),"^",B23+1),"")</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -9405,23 +9408,23 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C24)),LEN(D24)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C24)),LEN(E24)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C24)),LEN(F24)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C24)),LEN(G24)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P24" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C24)),LEN(H24)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T24" s="3">
@@ -9436,7 +9439,7 @@
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
-        <f>IF(LEN(C25)&lt;&gt;0,IF(OR(LEN(B24)=0,B24="^"),"^",B24+1),"")</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -9458,23 +9461,23 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C25)),LEN(D25)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C25)),LEN(E25)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C25)),LEN(F25)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C25)),LEN(G25)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P25" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C25)),LEN(H25)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -9489,7 +9492,7 @@
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26" s="44">
-        <f>IF(LEN(C26)&lt;&gt;0,IF(OR(LEN(B25)=0,B25="^"),"^",B25+1),"")</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -9511,23 +9514,23 @@
         <v>2</v>
       </c>
       <c r="L26" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C26)),LEN(D26)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C26)),LEN(E26)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C26)),LEN(F26)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C26)),LEN(G26)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P26" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C26)),LEN(H26)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T26" s="3">
@@ -9542,7 +9545,7 @@
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
-        <f>IF(LEN(C27)&lt;&gt;0,IF(OR(LEN(B26)=0,B26="^"),"^",B26+1),"")</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -9564,23 +9567,23 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C27)),LEN(D27)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C27)),LEN(E27)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C27)),LEN(F27)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O27" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C27)),LEN(G27)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P27" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C27)),LEN(H27)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T27" s="3">
@@ -9595,7 +9598,7 @@
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B28" s="44">
-        <f>IF(LEN(C28)&lt;&gt;0,IF(OR(LEN(B27)=0,B27="^"),"^",B27+1),"")</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -9617,23 +9620,23 @@
         <v>2</v>
       </c>
       <c r="L28" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C28)),LEN(D28)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C28)),LEN(E28)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C28)),LEN(F28)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O28" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C28)),LEN(G28)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P28" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C28)),LEN(H28)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
@@ -9648,7 +9651,7 @@
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
-        <f>IF(LEN(C29)&lt;&gt;0,IF(OR(LEN(B28)=0,B28="^"),"^",B28+1),"")</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -9670,23 +9673,23 @@
         <v>3</v>
       </c>
       <c r="L29" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C29)),LEN(D29)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C29)),LEN(E29)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C29)),LEN(F29)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O29" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C29)),LEN(G29)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P29" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C29)),LEN(H29)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T29" s="3">
@@ -9698,7 +9701,7 @@
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B30" s="44">
-        <f>IF(LEN(C30)&lt;&gt;0,IF(OR(LEN(B29)=0,B29="^"),"^",B29+1),"")</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -9720,23 +9723,23 @@
         <v>3</v>
       </c>
       <c r="L30" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C30)),LEN(D30)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C30)),LEN(E30)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C30)),LEN(F30)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O30" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C30)),LEN(G30)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P30" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C30)),LEN(H30)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T30" s="3">
@@ -9748,7 +9751,7 @@
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
-        <f>IF(LEN(C31)&lt;&gt;0,IF(OR(LEN(B30)=0,B30="^"),"^",B30+1),"")</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -9770,23 +9773,23 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C31)),LEN(D31)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C31)),LEN(E31)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C31)),LEN(F31)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O31" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C31)),LEN(G31)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P31" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C31)),LEN(H31)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T31" s="3">
@@ -9798,7 +9801,7 @@
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B32" s="44">
-        <f>IF(LEN(C32)&lt;&gt;0,IF(OR(LEN(B31)=0,B31="^"),"^",B31+1),"")</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -9820,23 +9823,23 @@
         <v>2</v>
       </c>
       <c r="L32" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C32)),LEN(D32)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C32)),LEN(E32)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C32)),LEN(F32)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O32" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C32)),LEN(G32)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P32" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C32)),LEN(H32)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T32" s="3">
@@ -9848,7 +9851,7 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="45">
-        <f>IF(LEN(C33)&lt;&gt;0,IF(OR(LEN(B32)=0,B32="^"),"^",B32+1),"")</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -9870,23 +9873,23 @@
         <v>3</v>
       </c>
       <c r="L33" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C33)),LEN(D33)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C33)),LEN(E33)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C33)),LEN(F33)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O33" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C33)),LEN(G33)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P33" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C33)),LEN(H33)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T33" s="3">
@@ -9898,7 +9901,7 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="44">
-        <f>IF(LEN(C34)&lt;&gt;0,IF(OR(LEN(B33)=0,B33="^"),"^",B33+1),"")</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -9920,23 +9923,23 @@
         <v>3</v>
       </c>
       <c r="L34" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C34)),LEN(D34)=0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C34)),LEN(E34)=0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C34)),LEN(F34)=0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C34)),LEN(G34)=0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P34" s="3" t="b">
-        <f>AND(NOT(ISBLANK($C34)),LEN(H34)=0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T34" s="3">
@@ -9974,19 +9977,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="b">
-        <f t="shared" ref="M35:M42" si="15">AND(NOT(ISBLANK($C35)),LEN(E35)=0)</f>
+        <f t="shared" ref="M35:M42" si="21">AND(NOT(ISBLANK($C35)),LEN(E35)=0)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="b">
-        <f t="shared" ref="N35:N42" si="16">AND(NOT(ISBLANK($C35)),LEN(F35)=0)</f>
+        <f t="shared" ref="N35:N42" si="22">AND(NOT(ISBLANK($C35)),LEN(F35)=0)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="b">
-        <f t="shared" ref="O35:O42" si="17">AND(NOT(ISBLANK($C35)),LEN(G35)=0)</f>
+        <f t="shared" ref="O35:O42" si="23">AND(NOT(ISBLANK($C35)),LEN(G35)=0)</f>
         <v>0</v>
       </c>
       <c r="P35" s="3" t="b">
-        <f t="shared" ref="P35:P42" si="18">AND(NOT(ISBLANK($C35)),LEN(H35)=0)</f>
+        <f t="shared" ref="P35:P42" si="24">AND(NOT(ISBLANK($C35)),LEN(H35)=0)</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
@@ -9997,34 +10000,46 @@
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="str">
+      <c r="B36" s="44">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="18">
+        <v>3</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.51041666666667096</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L36" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O36" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P36" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T36" s="3">
@@ -10050,19 +10065,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P37" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T37" s="3">
@@ -10088,19 +10103,19 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O38" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P38" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T38" s="3">
@@ -10126,19 +10141,19 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O39" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P39" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T39" s="3">
@@ -10164,19 +10179,19 @@
         <v>0</v>
       </c>
       <c r="M40" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O40" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P40" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T40" s="3">
@@ -10202,19 +10217,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P41" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T41" s="3">
@@ -10240,19 +10255,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O42" s="3" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P42" s="3" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T42" s="3">
@@ -10268,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" ref="M43:P43" si="19">COUNTIF(M8:M42,TRUE)</f>
+        <f t="shared" ref="M43:P43" si="25">COUNTIF(M8:M42,TRUE)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X43" s="8">
@@ -10973,13 +10988,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 F29 F31 F33">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="80" priority="26">
       <formula>$F25=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="79" priority="27">
       <formula>$F25=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="78" priority="28">
       <formula>$F25=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11012,34 +11027,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:H26 C28:H28 C30:H30 C32:H32 C34:H34">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="77" priority="29">
       <formula>LEN($B26)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H25 C29:H29 C31:H31 C33:H33">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>LEN($B25)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>$F23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>$F23=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="73" priority="21">
       <formula>$F23=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="72" priority="16">
       <formula>$F24=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>$F24=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="70" priority="20">
       <formula>$F24=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11072,42 +11087,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:H24">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="69" priority="22">
       <formula>LEN($B24)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>LEN($B23)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:H27">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$E27="Optionnelle"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>$E27="Essentielle"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="65" priority="8">
       <formula>$F27=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="64" priority="10">
       <formula>$F27=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="63" priority="12">
       <formula>$F27=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>$F27=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="61" priority="9">
       <formula>$F27=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>$F27=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11126,17 +11141,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:G27">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>L27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>$P27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:H27">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>LEN($B27)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12444,17 +12459,17 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="str">
+      <c r="B36" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C36" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>include machine learning pour les signes</v>
       </c>
       <c r="D36" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="118"/>
       <c r="F36" s="116"/>
@@ -12722,97 +12737,97 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:D42">
-    <cfRule type="expression" dxfId="80" priority="10">
+    <cfRule type="expression" dxfId="56" priority="10">
       <formula>$F8=100%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="11">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>$D8&lt;&gt;"Sprint 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:G20 E22:G22 E24:G24 E26:G26 E28:G28 E30:G30 E32:G32 E34:G34 E36:G36 E38:G38 E40:G40 E42:G42">
-    <cfRule type="expression" dxfId="78" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>AND($D20&lt;&gt;"Sprint 1",$F20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>AND($D20="Sprint 1",$F20&lt;1,NOT(ISBLANK($F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:G19 E21:G21 E23:G23 E25:G25 E27:G27 E29:G29 E31:G31 E33:G33 E35:G35 E37:G37 E39:G39 E41:G41">
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>AND($D19&lt;&gt;"Sprint 1",$F19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>AND($D19="Sprint 1",$F19&lt;1,NOT(ISBLANK($F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G42">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>$M19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E42">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="49" priority="14">
       <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F42">
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="48" priority="13">
       <formula>$L19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="71" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>$K$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D8 B10:D10 B12:D12 B14:D14 B16:D16 B18:D18 B20:G20 B22:G22 B24:G24 B26:G26 B28:G28 B30:G30 B32:G32 B34:G34 B36:G36 B38:G38 B40:G40 B42:G42">
-    <cfRule type="expression" dxfId="70" priority="25">
+    <cfRule type="expression" dxfId="46" priority="25">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D9 B11:D11 B13:D13 B15:D15 B17:D17 B19:G19 B21:G21 B23:G23 B25:G25 B27:G27 B29:G29 B31:G31 B33:G33 B35:G35 B37:G37 B39:G39 B41:G41">
-    <cfRule type="expression" dxfId="69" priority="20">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>AND($D8&lt;&gt;"Sprint 1",$F8&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>AND($D8="Sprint 1",$F8&lt;1,NOT(ISBLANK($F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND($D9&lt;&gt;"Sprint 1",$F9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>AND($D9="Sprint 1",$F9&lt;1,NOT(ISBLANK($F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G18">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>$M8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>$K8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F18">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$L8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8 E10:G10 E12:G12 E14:G14 E16:G16 E18:G18">
-    <cfRule type="expression" dxfId="61" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>LEN($B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G9 E11:G11 E13:G13 E15:G15 E17:G17">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14213,17 +14228,17 @@
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="53" t="str">
+      <c r="B37" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C37" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>include machine learning pour les signes</v>
       </c>
       <c r="D37" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E36),"",'Sprint 1 - Bilan'!E36)</f>
@@ -14586,97 +14601,97 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>OR($D9="Sprint 3",AND($D9="Sprint 1",$F9=100%))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND($D21="Sprint 3",$H21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>AND($D21&lt;&gt;"Sprint 3",$H21&lt;1,NOT(ISBLANK($H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="55" priority="16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>AND($D20="Sprint 3",$H20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="30" priority="17">
       <formula>AND($D20&lt;&gt;"Sprint 3",$H20&lt;1,NOT(ISBLANK($H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I43">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>$O20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G43">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$M20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H43">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>$N20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F9 B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:F10 B12:F12 B14:F14 B16:F16 B18:F18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="48" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND($D9="Sprint 3",$H9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>AND($D9&lt;&gt;"Sprint 3",$H9&lt;1,NOT(ISBLANK($H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND($D10="Sprint 3",$H10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND($D10&lt;&gt;"Sprint 3",$H10&lt;1,NOT(ISBLANK($H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I19">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G19">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H19">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="40" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14779,7 +14794,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 44 champs à remplir!</v>
+        <v>Attention, il reste 46 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15237,11 +15252,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>22 tâches n'ont pas été terminé!</v>
+        <v>23 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -16085,17 +16100,17 @@
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="53" t="str">
+      <c r="B37" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C37" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>include machine learning pour les signes</v>
       </c>
       <c r="D37" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E37)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G37)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E37)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G37))</f>
@@ -16110,11 +16125,11 @@
       <c r="I37" s="117"/>
       <c r="M37" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="3" t="b">
         <f t="shared" si="2"/>
@@ -16122,7 +16137,7 @@
       </c>
       <c r="P37" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="8"/>
     </row>
@@ -16381,11 +16396,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -16393,21 +16408,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>44 champs</v>
+        <v>46 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -16458,50 +16473,50 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($D9&lt;&gt;"Sprint 3",$F9=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19 G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="36" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>IF(ISBLANK($H9),IF(ISBLANK($F9),TRUE,$F9&lt;100%),$H9&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18 G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>IF(ISBLANK($H10),IF(ISBLANK($F10),TRUE,$F10&lt;100%),$H10&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I43">
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G43">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H43">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:I9 B11:I11 B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10 B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16630,11 +16645,11 @@
       </c>
       <c r="E8" s="97">
         <f>N8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="101">
         <f>O8</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -16648,11 +16663,11 @@
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -16673,11 +16688,11 @@
       </c>
       <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>24h00</v>
+        <v>36h15</v>
       </c>
       <c r="F9" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>89h00</v>
+        <v>101h15</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -16691,11 +16706,11 @@
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
-        <v>1</v>
+        <v>1.510416666666671</v>
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
-        <v>3.7083333333333348</v>
+        <v>4.2187500000000053</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>65</v>
@@ -16710,7 +16725,7 @@
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>36.25</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>67</v>
@@ -16785,7 +16800,7 @@
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>70</v>
@@ -16809,11 +16824,11 @@
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -16827,11 +16842,11 @@
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -16842,7 +16857,7 @@
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:25" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -16964,7 +16979,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZTHIqTmr8cTliRMGAcUcmM0mjbf6CIJ0mHH1g8KtGLF4lRA/UYuFPwpT4A16q2cQqIx/6PesESjQGKIAV9ov5g==" saltValue="9FKXXuq3MsinQZgjNrQSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17287,22 +17302,22 @@
     <mergeCell ref="C35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="27" priority="69">
+    <cfRule type="expression" dxfId="3" priority="69">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
